--- a/Code/Results/Cases/Case_1_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_19/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.004178478997157</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.040256712554664</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.009920088148323</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.036923121954617</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.052838840571056</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.026234926724158</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.051182311814814</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.021242928952528</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.04789095269507</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.012276500771041</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.009309542715387</v>
+      </c>
+      <c r="D3">
+        <v>1.043744368596603</v>
+      </c>
+      <c r="E3">
+        <v>1.014072907353986</v>
+      </c>
+      <c r="F3">
+        <v>1.041263131373641</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.054613276554482</v>
+      </c>
+      <c r="J3">
+        <v>1.029549597838975</v>
+      </c>
+      <c r="K3">
+        <v>1.053846531129297</v>
+      </c>
+      <c r="L3">
+        <v>1.024528834398813</v>
+      </c>
+      <c r="M3">
+        <v>1.051393922170888</v>
+      </c>
+      <c r="N3">
+        <v>1.013416449660916</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.012555463705903</v>
+      </c>
+      <c r="D4">
+        <v>1.045954656872068</v>
+      </c>
+      <c r="E4">
+        <v>1.01670598068902</v>
+      </c>
+      <c r="F4">
+        <v>1.044015874874357</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.055725473173046</v>
+      </c>
+      <c r="J4">
+        <v>1.031643362444332</v>
+      </c>
+      <c r="K4">
+        <v>1.055528367645769</v>
+      </c>
+      <c r="L4">
+        <v>1.026606875224146</v>
+      </c>
+      <c r="M4">
+        <v>1.053610577168072</v>
+      </c>
+      <c r="N4">
+        <v>1.014136012445037</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.013902984169815</v>
+      </c>
+      <c r="D5">
+        <v>1.046873106863497</v>
+      </c>
+      <c r="E5">
+        <v>1.017800465969605</v>
+      </c>
+      <c r="F5">
+        <v>1.045160311543825</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.056184664369466</v>
+      </c>
+      <c r="J5">
+        <v>1.03251178717397</v>
+      </c>
+      <c r="K5">
+        <v>1.056225645315516</v>
+      </c>
+      <c r="L5">
+        <v>1.027469362967041</v>
+      </c>
+      <c r="M5">
+        <v>1.054530891121717</v>
+      </c>
+      <c r="N5">
+        <v>1.014434334739655</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.014128257826354</v>
+      </c>
+      <c r="D6">
+        <v>1.047026698282879</v>
+      </c>
+      <c r="E6">
+        <v>1.017983517967175</v>
+      </c>
+      <c r="F6">
+        <v>1.045351729349025</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.056261280076435</v>
+      </c>
+      <c r="J6">
+        <v>1.032656919892388</v>
+      </c>
+      <c r="K6">
+        <v>1.056342157312581</v>
+      </c>
+      <c r="L6">
+        <v>1.027613537806876</v>
+      </c>
+      <c r="M6">
+        <v>1.05468474884308</v>
+      </c>
+      <c r="N6">
+        <v>1.0144841831128</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.01257353549039</v>
+      </c>
+      <c r="D7">
+        <v>1.045966971033899</v>
+      </c>
+      <c r="E7">
+        <v>1.016720653582607</v>
+      </c>
+      <c r="F7">
+        <v>1.044031216639114</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.05573164151543</v>
+      </c>
+      <c r="J7">
+        <v>1.031655012171309</v>
+      </c>
+      <c r="K7">
+        <v>1.055537722680124</v>
+      </c>
+      <c r="L7">
+        <v>1.026618442998811</v>
+      </c>
+      <c r="M7">
+        <v>1.053622919384191</v>
+      </c>
+      <c r="N7">
+        <v>1.014140014892036</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.005928350449274</v>
+      </c>
+      <c r="D8">
+        <v>1.041445228987649</v>
+      </c>
+      <c r="E8">
+        <v>1.011335052357926</v>
+      </c>
+      <c r="F8">
+        <v>1.038401642830518</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.053446117390171</v>
+      </c>
+      <c r="J8">
+        <v>1.027365970452459</v>
+      </c>
+      <c r="K8">
+        <v>1.052091604838819</v>
+      </c>
+      <c r="L8">
+        <v>1.022363641379063</v>
+      </c>
+      <c r="M8">
+        <v>1.049085399827994</v>
+      </c>
+      <c r="N8">
+        <v>1.012665579289661</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9936164480760378</v>
+      </c>
+      <c r="D9">
+        <v>1.033103995552796</v>
+      </c>
+      <c r="E9">
+        <v>1.001407407171646</v>
+      </c>
+      <c r="F9">
+        <v>1.028033462758017</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.049131743392813</v>
+      </c>
+      <c r="J9">
+        <v>1.019396657496391</v>
+      </c>
+      <c r="K9">
+        <v>1.045681882338863</v>
+      </c>
+      <c r="L9">
+        <v>1.014477691372179</v>
+      </c>
+      <c r="M9">
+        <v>1.040687519766591</v>
+      </c>
+      <c r="N9">
+        <v>1.009922312515732</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9849526988586346</v>
+      </c>
+      <c r="D10">
+        <v>1.02726592649829</v>
+      </c>
+      <c r="E10">
+        <v>0.9944597615141267</v>
+      </c>
+      <c r="F10">
+        <v>1.020785843482766</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.04604539732822</v>
+      </c>
+      <c r="J10">
+        <v>1.013776313130414</v>
+      </c>
+      <c r="K10">
+        <v>1.041159739511984</v>
+      </c>
+      <c r="L10">
+        <v>1.008929772395647</v>
+      </c>
+      <c r="M10">
+        <v>1.034789677925795</v>
+      </c>
+      <c r="N10">
+        <v>1.007985666459917</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9810805477688754</v>
+      </c>
+      <c r="D11">
+        <v>1.024665817357364</v>
+      </c>
+      <c r="E11">
+        <v>0.9913646776550123</v>
+      </c>
+      <c r="F11">
+        <v>1.017559617542517</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.0446549374009</v>
+      </c>
+      <c r="J11">
+        <v>1.011262142954693</v>
+      </c>
+      <c r="K11">
+        <v>1.039137096159663</v>
+      </c>
+      <c r="L11">
+        <v>1.006451301807684</v>
+      </c>
+      <c r="M11">
+        <v>1.032157812579334</v>
+      </c>
+      <c r="N11">
+        <v>1.007118994617398</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9796229546692818</v>
+      </c>
+      <c r="D12">
+        <v>1.023688582386822</v>
+      </c>
+      <c r="E12">
+        <v>0.9902011995241583</v>
+      </c>
+      <c r="F12">
+        <v>1.016347264039864</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.044129946461068</v>
+      </c>
+      <c r="J12">
+        <v>1.010315464634132</v>
+      </c>
+      <c r="K12">
+        <v>1.038375596124021</v>
+      </c>
+      <c r="L12">
+        <v>1.005518568097369</v>
+      </c>
+      <c r="M12">
+        <v>1.031167837602568</v>
+      </c>
+      <c r="N12">
+        <v>1.006792619368588</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9799365067565281</v>
+      </c>
+      <c r="D13">
+        <v>1.023898730256741</v>
+      </c>
+      <c r="E13">
+        <v>0.9904514087341888</v>
+      </c>
+      <c r="F13">
+        <v>1.016607964135777</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.044242950625081</v>
+      </c>
+      <c r="J13">
+        <v>1.010519121698825</v>
+      </c>
+      <c r="K13">
+        <v>1.038539410607166</v>
+      </c>
+      <c r="L13">
+        <v>1.005719202482971</v>
+      </c>
+      <c r="M13">
+        <v>1.031380762036092</v>
+      </c>
+      <c r="N13">
+        <v>1.006862833525467</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9809604635796079</v>
+      </c>
+      <c r="D14">
+        <v>1.02458527574709</v>
+      </c>
+      <c r="E14">
+        <v>0.9912687910880886</v>
+      </c>
+      <c r="F14">
+        <v>1.017459694097727</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.044611717507014</v>
+      </c>
+      <c r="J14">
+        <v>1.011184155702524</v>
+      </c>
+      <c r="K14">
+        <v>1.039074361476276</v>
+      </c>
+      <c r="L14">
+        <v>1.006374453066544</v>
+      </c>
+      <c r="M14">
+        <v>1.032076237518265</v>
+      </c>
+      <c r="N14">
+        <v>1.007092108635218</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.981588762546264</v>
+      </c>
+      <c r="D15">
+        <v>1.025006744832506</v>
+      </c>
+      <c r="E15">
+        <v>0.9917705502417618</v>
+      </c>
+      <c r="F15">
+        <v>1.017982595104894</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.044837786765098</v>
+      </c>
+      <c r="J15">
+        <v>1.011592186424632</v>
+      </c>
+      <c r="K15">
+        <v>1.039402594931598</v>
+      </c>
+      <c r="L15">
+        <v>1.00677654758004</v>
+      </c>
+      <c r="M15">
+        <v>1.032503081586114</v>
+      </c>
+      <c r="N15">
+        <v>1.007232774970811</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9852070401679954</v>
+      </c>
+      <c r="D16">
+        <v>1.027436916652463</v>
+      </c>
+      <c r="E16">
+        <v>0.9946632784120313</v>
+      </c>
+      <c r="F16">
+        <v>1.020998039496309</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.046136506044057</v>
+      </c>
+      <c r="J16">
+        <v>1.013941414822051</v>
+      </c>
+      <c r="K16">
+        <v>1.041292573903982</v>
+      </c>
+      <c r="L16">
+        <v>1.009092598931263</v>
+      </c>
+      <c r="M16">
+        <v>1.034962646725975</v>
+      </c>
+      <c r="N16">
+        <v>1.008042573188574</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9874435807857579</v>
+      </c>
+      <c r="D17">
+        <v>1.028941567762129</v>
+      </c>
+      <c r="E17">
+        <v>0.9964540515629631</v>
+      </c>
+      <c r="F17">
+        <v>1.022865470419286</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.046936420281266</v>
+      </c>
+      <c r="J17">
+        <v>1.015392984491861</v>
+      </c>
+      <c r="K17">
+        <v>1.042460487306692</v>
+      </c>
+      <c r="L17">
+        <v>1.010524541074552</v>
+      </c>
+      <c r="M17">
+        <v>1.036484120930991</v>
+      </c>
+      <c r="N17">
+        <v>1.008542857764712</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9887365562908704</v>
+      </c>
+      <c r="D18">
+        <v>1.029812282718367</v>
+      </c>
+      <c r="E18">
+        <v>0.9974902704737629</v>
+      </c>
+      <c r="F18">
+        <v>1.023946279889777</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.047397809551696</v>
+      </c>
+      <c r="J18">
+        <v>1.016231941712519</v>
+      </c>
+      <c r="K18">
+        <v>1.043135521829264</v>
+      </c>
+      <c r="L18">
+        <v>1.011352466198647</v>
+      </c>
+      <c r="M18">
+        <v>1.037364086207647</v>
+      </c>
+      <c r="N18">
+        <v>1.008831971685071</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9891755006203999</v>
+      </c>
+      <c r="D19">
+        <v>1.030108017119927</v>
+      </c>
+      <c r="E19">
+        <v>0.9978422082827896</v>
+      </c>
+      <c r="F19">
+        <v>1.024313400442777</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.047554262925743</v>
+      </c>
+      <c r="J19">
+        <v>1.016516715713095</v>
+      </c>
+      <c r="K19">
+        <v>1.043364656024731</v>
+      </c>
+      <c r="L19">
+        <v>1.011633548218487</v>
+      </c>
+      <c r="M19">
+        <v>1.037662881137237</v>
+      </c>
+      <c r="N19">
+        <v>1.008930101988886</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9872048250886201</v>
+      </c>
+      <c r="D20">
+        <v>1.028780853118548</v>
+      </c>
+      <c r="E20">
+        <v>0.9962627835421531</v>
+      </c>
+      <c r="F20">
+        <v>1.022665990262833</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.046851136318913</v>
+      </c>
+      <c r="J20">
+        <v>1.015238048116053</v>
+      </c>
+      <c r="K20">
+        <v>1.04233582500402</v>
+      </c>
+      <c r="L20">
+        <v>1.010371667261758</v>
+      </c>
+      <c r="M20">
+        <v>1.036321659918882</v>
+      </c>
+      <c r="N20">
+        <v>1.008489462210486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9806594765942014</v>
+      </c>
+      <c r="D21">
+        <v>1.024383425969015</v>
+      </c>
+      <c r="E21">
+        <v>0.9910284807687116</v>
+      </c>
+      <c r="F21">
+        <v>1.017209273555308</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.044503363131532</v>
+      </c>
+      <c r="J21">
+        <v>1.010988679161559</v>
+      </c>
+      <c r="K21">
+        <v>1.038917117616977</v>
+      </c>
+      <c r="L21">
+        <v>1.006181838337332</v>
+      </c>
+      <c r="M21">
+        <v>1.031871784673888</v>
+      </c>
+      <c r="N21">
+        <v>1.007024717780098</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9764318170504779</v>
+      </c>
+      <c r="D22">
+        <v>1.021552080575752</v>
+      </c>
+      <c r="E22">
+        <v>0.987657029117986</v>
+      </c>
+      <c r="F22">
+        <v>1.013697051541327</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.042977758675151</v>
+      </c>
+      <c r="J22">
+        <v>1.008242462210687</v>
+      </c>
+      <c r="K22">
+        <v>1.036708345078827</v>
+      </c>
+      <c r="L22">
+        <v>1.003477033345216</v>
+      </c>
+      <c r="M22">
+        <v>1.029001964481848</v>
+      </c>
+      <c r="N22">
+        <v>1.006077870773152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9786840451146402</v>
+      </c>
+      <c r="D23">
+        <v>1.023059544831062</v>
+      </c>
+      <c r="E23">
+        <v>0.9894522079937257</v>
+      </c>
+      <c r="F23">
+        <v>1.015566934270718</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.043791338360307</v>
+      </c>
+      <c r="J23">
+        <v>1.009705593668981</v>
+      </c>
+      <c r="K23">
+        <v>1.037885057208348</v>
+      </c>
+      <c r="L23">
+        <v>1.004917822997952</v>
+      </c>
+      <c r="M23">
+        <v>1.030530368345957</v>
+      </c>
+      <c r="N23">
+        <v>1.006582351023861</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9873127441511782</v>
+      </c>
+      <c r="D24">
+        <v>1.028853494497735</v>
+      </c>
+      <c r="E24">
+        <v>0.9963492349458289</v>
+      </c>
+      <c r="F24">
+        <v>1.022756152758013</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.046889688471618</v>
+      </c>
+      <c r="J24">
+        <v>1.015308080996737</v>
+      </c>
+      <c r="K24">
+        <v>1.042392173623301</v>
+      </c>
+      <c r="L24">
+        <v>1.01044076687492</v>
+      </c>
+      <c r="M24">
+        <v>1.036395092139847</v>
+      </c>
+      <c r="N24">
+        <v>1.008513597669933</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9968757440975089</v>
+      </c>
+      <c r="D25">
+        <v>1.035307236628098</v>
+      </c>
+      <c r="E25">
+        <v>1.00402924381388</v>
+      </c>
+      <c r="F25">
+        <v>1.030770367190738</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.050282810412215</v>
+      </c>
+      <c r="J25">
+        <v>1.021508711324913</v>
+      </c>
+      <c r="K25">
+        <v>1.047381107222408</v>
+      </c>
+      <c r="L25">
+        <v>1.016565331319633</v>
+      </c>
+      <c r="M25">
+        <v>1.042909079168003</v>
+      </c>
+      <c r="N25">
+        <v>1.010649717427512</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_19/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.004178478997157</v>
+        <v>1.034090070943128</v>
       </c>
       <c r="D2">
-        <v>1.040256712554664</v>
+        <v>1.049855308012942</v>
       </c>
       <c r="E2">
-        <v>1.009920088148323</v>
+        <v>1.033304875265924</v>
       </c>
       <c r="F2">
-        <v>1.036923121954617</v>
+        <v>1.055222175378121</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052838840571056</v>
+        <v>1.04251631176262</v>
       </c>
       <c r="J2">
-        <v>1.026234926724158</v>
+        <v>1.039211222030667</v>
       </c>
       <c r="K2">
-        <v>1.051182311814814</v>
+        <v>1.052611205441789</v>
       </c>
       <c r="L2">
-        <v>1.021242928952528</v>
+        <v>1.036107608181488</v>
       </c>
       <c r="M2">
-        <v>1.04789095269507</v>
+        <v>1.057963227193432</v>
       </c>
       <c r="N2">
-        <v>1.012276500771041</v>
+        <v>1.016978043466171</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.009309542715387</v>
+        <v>1.0351540539071</v>
       </c>
       <c r="D3">
-        <v>1.043744368596603</v>
+        <v>1.050585347761753</v>
       </c>
       <c r="E3">
-        <v>1.014072907353986</v>
+        <v>1.034212690416723</v>
       </c>
       <c r="F3">
-        <v>1.041263131373641</v>
+        <v>1.056169275936534</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054613276554482</v>
+        <v>1.042811512221143</v>
       </c>
       <c r="J3">
-        <v>1.029549597838975</v>
+        <v>1.039917611678737</v>
       </c>
       <c r="K3">
-        <v>1.053846531129297</v>
+        <v>1.053153787275745</v>
       </c>
       <c r="L3">
-        <v>1.024528834398813</v>
+        <v>1.036824111880447</v>
       </c>
       <c r="M3">
-        <v>1.051393922170888</v>
+        <v>1.058723385100425</v>
       </c>
       <c r="N3">
-        <v>1.013416449660916</v>
+        <v>1.017217327949326</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.012555463705903</v>
+        <v>1.035842644886405</v>
       </c>
       <c r="D4">
-        <v>1.045954656872068</v>
+        <v>1.051057771768489</v>
       </c>
       <c r="E4">
-        <v>1.01670598068902</v>
+        <v>1.034800556395987</v>
       </c>
       <c r="F4">
-        <v>1.044015874874357</v>
+        <v>1.056782600805362</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055725473173046</v>
+        <v>1.043001221062418</v>
       </c>
       <c r="J4">
-        <v>1.031643362444332</v>
+        <v>1.040374256055379</v>
       </c>
       <c r="K4">
-        <v>1.055528367645769</v>
+        <v>1.053504243974236</v>
       </c>
       <c r="L4">
-        <v>1.026606875224146</v>
+        <v>1.037287558152963</v>
       </c>
       <c r="M4">
-        <v>1.053610577168072</v>
+        <v>1.059215120137998</v>
       </c>
       <c r="N4">
-        <v>1.014136012445037</v>
+        <v>1.017371886578888</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.013902984169815</v>
+        <v>1.036132158091744</v>
       </c>
       <c r="D5">
-        <v>1.046873106863497</v>
+        <v>1.051256387252378</v>
       </c>
       <c r="E5">
-        <v>1.017800465969605</v>
+        <v>1.035047802199947</v>
       </c>
       <c r="F5">
-        <v>1.045160311543825</v>
+        <v>1.057040558401821</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056184664369466</v>
+        <v>1.043080661765743</v>
       </c>
       <c r="J5">
-        <v>1.03251178717397</v>
+        <v>1.040566124467178</v>
       </c>
       <c r="K5">
-        <v>1.056225645315516</v>
+        <v>1.053651424461602</v>
       </c>
       <c r="L5">
-        <v>1.027469362967041</v>
+        <v>1.037482347631112</v>
       </c>
       <c r="M5">
-        <v>1.054530891121717</v>
+        <v>1.059421811783166</v>
       </c>
       <c r="N5">
-        <v>1.014434334739655</v>
+        <v>1.017436797139606</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.014128257826354</v>
+        <v>1.036180770370453</v>
       </c>
       <c r="D6">
-        <v>1.047026698282879</v>
+        <v>1.051289736130846</v>
       </c>
       <c r="E6">
-        <v>1.017983517967175</v>
+        <v>1.035089322114805</v>
       </c>
       <c r="F6">
-        <v>1.045351729349025</v>
+        <v>1.05708387738355</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056261280076435</v>
+        <v>1.043093981851539</v>
       </c>
       <c r="J6">
-        <v>1.032656919892388</v>
+        <v>1.040598333859364</v>
       </c>
       <c r="K6">
-        <v>1.056342157312581</v>
+        <v>1.053676127808781</v>
       </c>
       <c r="L6">
-        <v>1.027613537806876</v>
+        <v>1.037515051090154</v>
       </c>
       <c r="M6">
-        <v>1.05468474884308</v>
+        <v>1.059456514218473</v>
       </c>
       <c r="N6">
-        <v>1.0144841831128</v>
+        <v>1.017447692039265</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.01257353549039</v>
+        <v>1.035846513259689</v>
       </c>
       <c r="D7">
-        <v>1.045966971033899</v>
+        <v>1.051060425646458</v>
       </c>
       <c r="E7">
-        <v>1.016720653582607</v>
+        <v>1.034803859686938</v>
       </c>
       <c r="F7">
-        <v>1.044031216639114</v>
+        <v>1.056786047193397</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05573164151543</v>
+        <v>1.043002283782855</v>
       </c>
       <c r="J7">
-        <v>1.031655012171309</v>
+        <v>1.040376820222954</v>
       </c>
       <c r="K7">
-        <v>1.055537722680124</v>
+        <v>1.05350621120329</v>
       </c>
       <c r="L7">
-        <v>1.026618442998811</v>
+        <v>1.037290161110222</v>
       </c>
       <c r="M7">
-        <v>1.053622919384191</v>
+        <v>1.059217882095473</v>
       </c>
       <c r="N7">
-        <v>1.014140014892036</v>
+        <v>1.017372754176103</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.005928350449274</v>
+        <v>1.034449623616462</v>
       </c>
       <c r="D8">
-        <v>1.041445228987649</v>
+        <v>1.050102019579571</v>
       </c>
       <c r="E8">
-        <v>1.011335052357926</v>
+        <v>1.033611582395065</v>
       </c>
       <c r="F8">
-        <v>1.038401642830518</v>
+        <v>1.055542150981391</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053446117390171</v>
+        <v>1.042616346272438</v>
       </c>
       <c r="J8">
-        <v>1.027365970452459</v>
+        <v>1.039450040029851</v>
       </c>
       <c r="K8">
-        <v>1.052091604838819</v>
+        <v>1.052794703557342</v>
       </c>
       <c r="L8">
-        <v>1.022363641379063</v>
+        <v>1.036349790921409</v>
       </c>
       <c r="M8">
-        <v>1.049085399827994</v>
+        <v>1.058220154239628</v>
       </c>
       <c r="N8">
-        <v>1.012665579289661</v>
+        <v>1.017058967487686</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9936164480760378</v>
+        <v>1.031989059595081</v>
       </c>
       <c r="D9">
-        <v>1.033103995552796</v>
+        <v>1.048413532645907</v>
       </c>
       <c r="E9">
-        <v>1.001407407171646</v>
+        <v>1.031514097699638</v>
       </c>
       <c r="F9">
-        <v>1.028033462758017</v>
+        <v>1.053354019031798</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049131743392813</v>
+        <v>1.04192629024385</v>
       </c>
       <c r="J9">
-        <v>1.019396657496391</v>
+        <v>1.037813600125768</v>
       </c>
       <c r="K9">
-        <v>1.045681882338863</v>
+        <v>1.051536140618077</v>
       </c>
       <c r="L9">
-        <v>1.014477691372179</v>
+        <v>1.034691378845578</v>
       </c>
       <c r="M9">
-        <v>1.040687519766591</v>
+        <v>1.056461005942372</v>
       </c>
       <c r="N9">
-        <v>1.009922312515732</v>
+        <v>1.016503941607984</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9849526988586346</v>
+        <v>1.030349298953914</v>
       </c>
       <c r="D10">
-        <v>1.02726592649829</v>
+        <v>1.047288166947789</v>
       </c>
       <c r="E10">
-        <v>0.9944597615141267</v>
+        <v>1.030118129139107</v>
       </c>
       <c r="F10">
-        <v>1.020785843482766</v>
+        <v>1.051897850783687</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04604539732822</v>
+        <v>1.041459558118224</v>
       </c>
       <c r="J10">
-        <v>1.013776313130414</v>
+        <v>1.036720411920147</v>
       </c>
       <c r="K10">
-        <v>1.041159739511984</v>
+        <v>1.050693913180701</v>
       </c>
       <c r="L10">
-        <v>1.008929772395647</v>
+        <v>1.033584875421373</v>
       </c>
       <c r="M10">
-        <v>1.034789677925795</v>
+        <v>1.055287593531256</v>
       </c>
       <c r="N10">
-        <v>1.007985666459917</v>
+        <v>1.016132527068185</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9810805477688754</v>
+        <v>1.029639406720388</v>
       </c>
       <c r="D11">
-        <v>1.024665817357364</v>
+        <v>1.046800952508485</v>
       </c>
       <c r="E11">
-        <v>0.9913646776550123</v>
+        <v>1.029514223065372</v>
       </c>
       <c r="F11">
-        <v>1.017559617542517</v>
+        <v>1.051267937317883</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0446549374009</v>
+        <v>1.041255873578634</v>
       </c>
       <c r="J11">
-        <v>1.011262142954693</v>
+        <v>1.036246523087486</v>
       </c>
       <c r="K11">
-        <v>1.039137096159663</v>
+        <v>1.050328471609575</v>
       </c>
       <c r="L11">
-        <v>1.006451301807684</v>
+        <v>1.033105538188352</v>
       </c>
       <c r="M11">
-        <v>1.032157812579334</v>
+        <v>1.054779347850693</v>
       </c>
       <c r="N11">
-        <v>1.007118994617398</v>
+        <v>1.015971371020899</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9796229546692818</v>
+        <v>1.029375740978775</v>
       </c>
       <c r="D12">
-        <v>1.023688582386822</v>
+        <v>1.046619991759601</v>
       </c>
       <c r="E12">
-        <v>0.9902011995241583</v>
+        <v>1.02928998956772</v>
       </c>
       <c r="F12">
-        <v>1.016347264039864</v>
+        <v>1.051034052845783</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044129946461068</v>
+        <v>1.041179977952072</v>
       </c>
       <c r="J12">
-        <v>1.010315464634132</v>
+        <v>1.036070419972868</v>
       </c>
       <c r="K12">
-        <v>1.038375596124021</v>
+        <v>1.050192617997464</v>
       </c>
       <c r="L12">
-        <v>1.005518568097369</v>
+        <v>1.032927459044597</v>
       </c>
       <c r="M12">
-        <v>1.031167837602568</v>
+        <v>1.0545905407846</v>
       </c>
       <c r="N12">
-        <v>1.006792619368588</v>
+        <v>1.015911460874283</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9799365067565281</v>
+        <v>1.029432297284404</v>
       </c>
       <c r="D13">
-        <v>1.023898730256741</v>
+        <v>1.046658807879261</v>
       </c>
       <c r="E13">
-        <v>0.9904514087341888</v>
+        <v>1.029338084602583</v>
       </c>
       <c r="F13">
-        <v>1.016607964135777</v>
+        <v>1.051084217618951</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044242950625081</v>
+        <v>1.041196268593367</v>
       </c>
       <c r="J13">
-        <v>1.010519121698825</v>
+        <v>1.036108198293938</v>
       </c>
       <c r="K13">
-        <v>1.038539410607166</v>
+        <v>1.050221764133001</v>
       </c>
       <c r="L13">
-        <v>1.005719202482971</v>
+        <v>1.032965659068312</v>
       </c>
       <c r="M13">
-        <v>1.031380762036092</v>
+        <v>1.054631041526704</v>
       </c>
       <c r="N13">
-        <v>1.006862833525467</v>
+        <v>1.015924314047224</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9809604635796079</v>
+        <v>1.029617611625652</v>
       </c>
       <c r="D14">
-        <v>1.02458527574709</v>
+        <v>1.046785993978535</v>
       </c>
       <c r="E14">
-        <v>0.9912687910880886</v>
+        <v>1.029495686136749</v>
       </c>
       <c r="F14">
-        <v>1.017459694097727</v>
+        <v>1.051248602444119</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044611717507014</v>
+        <v>1.041249604878718</v>
       </c>
       <c r="J14">
-        <v>1.011184155702524</v>
+        <v>1.036231967974453</v>
       </c>
       <c r="K14">
-        <v>1.039074361476276</v>
+        <v>1.050317244196064</v>
       </c>
       <c r="L14">
-        <v>1.006374453066544</v>
+        <v>1.033090818761502</v>
       </c>
       <c r="M14">
-        <v>1.032076237518265</v>
+        <v>1.054763741444848</v>
       </c>
       <c r="N14">
-        <v>1.007092108635218</v>
+        <v>1.015966419840879</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.981588762546264</v>
+        <v>1.029731792523823</v>
       </c>
       <c r="D15">
-        <v>1.025006744832506</v>
+        <v>1.046864359200812</v>
       </c>
       <c r="E15">
-        <v>0.9917705502417618</v>
+        <v>1.029592800798789</v>
       </c>
       <c r="F15">
-        <v>1.017982595104894</v>
+        <v>1.051349897763572</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044837786765098</v>
+        <v>1.041282435578092</v>
       </c>
       <c r="J15">
-        <v>1.011592186424632</v>
+        <v>1.036308216001022</v>
       </c>
       <c r="K15">
-        <v>1.039402594931598</v>
+        <v>1.050376057744819</v>
       </c>
       <c r="L15">
-        <v>1.00677654758004</v>
+        <v>1.033167929550905</v>
       </c>
       <c r="M15">
-        <v>1.032503081586114</v>
+        <v>1.054845499348015</v>
       </c>
       <c r="N15">
-        <v>1.007232774970811</v>
+        <v>1.015992356039381</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9852070401679954</v>
+        <v>1.030396414969654</v>
       </c>
       <c r="D16">
-        <v>1.027436916652463</v>
+        <v>1.047320503452287</v>
       </c>
       <c r="E16">
-        <v>0.9946632784120313</v>
+        <v>1.030158220172183</v>
       </c>
       <c r="F16">
-        <v>1.020998039496309</v>
+        <v>1.051939669128359</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046136506044057</v>
+        <v>1.041473042584955</v>
       </c>
       <c r="J16">
-        <v>1.013941414822051</v>
+        <v>1.036751851178997</v>
       </c>
       <c r="K16">
-        <v>1.041292573903982</v>
+        <v>1.050718150548799</v>
       </c>
       <c r="L16">
-        <v>1.009092598931263</v>
+        <v>1.033616682963464</v>
       </c>
       <c r="M16">
-        <v>1.034962646725975</v>
+        <v>1.055321321006434</v>
       </c>
       <c r="N16">
-        <v>1.008042573188574</v>
+        <v>1.016143215499387</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9874435807857579</v>
+        <v>1.030813350893597</v>
       </c>
       <c r="D17">
-        <v>1.028941567762129</v>
+        <v>1.047606651776507</v>
       </c>
       <c r="E17">
-        <v>0.9964540515629631</v>
+        <v>1.030513042316078</v>
       </c>
       <c r="F17">
-        <v>1.022865470419286</v>
+        <v>1.052309782833459</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046936420281266</v>
+        <v>1.041592180746837</v>
       </c>
       <c r="J17">
-        <v>1.015392984491861</v>
+        <v>1.037029989673837</v>
       </c>
       <c r="K17">
-        <v>1.042460487306692</v>
+        <v>1.050932535521488</v>
       </c>
       <c r="L17">
-        <v>1.010524541074552</v>
+        <v>1.03389811697759</v>
       </c>
       <c r="M17">
-        <v>1.036484120930991</v>
+        <v>1.055619751528933</v>
       </c>
       <c r="N17">
-        <v>1.008542857764712</v>
+        <v>1.016237757099059</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9887365562908704</v>
+        <v>1.031056555613082</v>
       </c>
       <c r="D18">
-        <v>1.029812282718367</v>
+        <v>1.047773564556492</v>
       </c>
       <c r="E18">
-        <v>0.9974902704737629</v>
+        <v>1.030720057839444</v>
       </c>
       <c r="F18">
-        <v>1.023946279889777</v>
+        <v>1.052525723377358</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047397809551696</v>
+        <v>1.041661518936424</v>
       </c>
       <c r="J18">
-        <v>1.016231941712519</v>
+        <v>1.037192171899928</v>
       </c>
       <c r="K18">
-        <v>1.043135521829264</v>
+        <v>1.051057510098902</v>
       </c>
       <c r="L18">
-        <v>1.011352466198647</v>
+        <v>1.03406225202083</v>
       </c>
       <c r="M18">
-        <v>1.037364086207647</v>
+        <v>1.055793806455635</v>
       </c>
       <c r="N18">
-        <v>1.008831971685071</v>
+        <v>1.016292869659588</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9891755006203999</v>
+        <v>1.031139484363984</v>
       </c>
       <c r="D19">
-        <v>1.030108017119927</v>
+        <v>1.047830478711891</v>
       </c>
       <c r="E19">
-        <v>0.9978422082827896</v>
+        <v>1.030790653892957</v>
       </c>
       <c r="F19">
-        <v>1.024313400442777</v>
+        <v>1.052599363589005</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047554262925743</v>
+        <v>1.041685135494531</v>
       </c>
       <c r="J19">
-        <v>1.016516715713095</v>
+        <v>1.037247463151763</v>
       </c>
       <c r="K19">
-        <v>1.043364656024731</v>
+        <v>1.05110011087712</v>
       </c>
       <c r="L19">
-        <v>1.011633548218487</v>
+        <v>1.034118214319587</v>
       </c>
       <c r="M19">
-        <v>1.037662881137237</v>
+        <v>1.055853152201799</v>
       </c>
       <c r="N19">
-        <v>1.008930101988886</v>
+        <v>1.016311656194437</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9872048250886201</v>
+        <v>1.030768616268059</v>
       </c>
       <c r="D20">
-        <v>1.028780853118548</v>
+        <v>1.047575950007253</v>
       </c>
       <c r="E20">
-        <v>0.9962627835421531</v>
+        <v>1.030474967693784</v>
       </c>
       <c r="F20">
-        <v>1.022665990262833</v>
+        <v>1.052270066977754</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046851136318913</v>
+        <v>1.041579414182156</v>
       </c>
       <c r="J20">
-        <v>1.015238048116053</v>
+        <v>1.037000153346114</v>
       </c>
       <c r="K20">
-        <v>1.04233582500402</v>
+        <v>1.050909541542874</v>
       </c>
       <c r="L20">
-        <v>1.010371667261758</v>
+        <v>1.033867923906401</v>
       </c>
       <c r="M20">
-        <v>1.036321659918882</v>
+        <v>1.055587734258558</v>
       </c>
       <c r="N20">
-        <v>1.008489462210486</v>
+        <v>1.016227616984449</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9806594765942014</v>
+        <v>1.029563040626713</v>
       </c>
       <c r="D21">
-        <v>1.024383425969015</v>
+        <v>1.046748540493021</v>
       </c>
       <c r="E21">
-        <v>0.9910284807687116</v>
+        <v>1.029449274088513</v>
       </c>
       <c r="F21">
-        <v>1.017209273555308</v>
+        <v>1.051200192625066</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044503363131532</v>
+        <v>1.041233905243495</v>
       </c>
       <c r="J21">
-        <v>1.010988679161559</v>
+        <v>1.036195523087838</v>
       </c>
       <c r="K21">
-        <v>1.038917117616977</v>
+        <v>1.050289130793883</v>
       </c>
       <c r="L21">
-        <v>1.006181838337332</v>
+        <v>1.033053963231906</v>
       </c>
       <c r="M21">
-        <v>1.031871784673888</v>
+        <v>1.054724665228652</v>
       </c>
       <c r="N21">
-        <v>1.007024717780098</v>
+        <v>1.015954022102693</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9764318170504779</v>
+        <v>1.028805161959494</v>
       </c>
       <c r="D22">
-        <v>1.021552080575752</v>
+        <v>1.046228387412284</v>
       </c>
       <c r="E22">
-        <v>0.987657029117986</v>
+        <v>1.028804866597651</v>
       </c>
       <c r="F22">
-        <v>1.013697051541327</v>
+        <v>1.050528061113661</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042977758675151</v>
+        <v>1.041015292487362</v>
       </c>
       <c r="J22">
-        <v>1.008242462210687</v>
+        <v>1.03568915902298</v>
       </c>
       <c r="K22">
-        <v>1.036708345078827</v>
+        <v>1.04989840424027</v>
       </c>
       <c r="L22">
-        <v>1.003477033345216</v>
+        <v>1.032542009074818</v>
       </c>
       <c r="M22">
-        <v>1.029001964481848</v>
+        <v>1.054181892539441</v>
       </c>
       <c r="N22">
-        <v>1.006077870773152</v>
+        <v>1.015781715147264</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9786840451146402</v>
+        <v>1.029206917062378</v>
       </c>
       <c r="D23">
-        <v>1.023059544831062</v>
+        <v>1.046504123259804</v>
       </c>
       <c r="E23">
-        <v>0.9894522079937257</v>
+        <v>1.02914643294399</v>
       </c>
       <c r="F23">
-        <v>1.015566934270718</v>
+        <v>1.050884319221845</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043791338360307</v>
+        <v>1.041131313747839</v>
       </c>
       <c r="J23">
-        <v>1.009705593668981</v>
+        <v>1.035957635868725</v>
       </c>
       <c r="K23">
-        <v>1.037885057208348</v>
+        <v>1.050105597173026</v>
       </c>
       <c r="L23">
-        <v>1.004917822997952</v>
+        <v>1.032813423110835</v>
       </c>
       <c r="M23">
-        <v>1.030530368345957</v>
+        <v>1.054469638443546</v>
       </c>
       <c r="N23">
-        <v>1.006582351023861</v>
+        <v>1.015873085485208</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9873127441511782</v>
+        <v>1.030788829879222</v>
       </c>
       <c r="D24">
-        <v>1.028853494497735</v>
+        <v>1.047589822792723</v>
       </c>
       <c r="E24">
-        <v>0.9963492349458289</v>
+        <v>1.030492171810497</v>
       </c>
       <c r="F24">
-        <v>1.022756152758013</v>
+        <v>1.052288012679616</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046889688471618</v>
+        <v>1.041585183316181</v>
       </c>
       <c r="J24">
-        <v>1.015308080996737</v>
+        <v>1.037013635256588</v>
       </c>
       <c r="K24">
-        <v>1.042392173623301</v>
+        <v>1.050919931756219</v>
       </c>
       <c r="L24">
-        <v>1.01044076687492</v>
+        <v>1.033881566919374</v>
       </c>
       <c r="M24">
-        <v>1.036395092139847</v>
+        <v>1.055602201529816</v>
       </c>
       <c r="N24">
-        <v>1.008513597669933</v>
+        <v>1.016232198964484</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9968757440975089</v>
+        <v>1.03262506499653</v>
       </c>
       <c r="D25">
-        <v>1.035307236628098</v>
+        <v>1.048849999782697</v>
       </c>
       <c r="E25">
-        <v>1.00402924381388</v>
+        <v>1.032055934816837</v>
       </c>
       <c r="F25">
-        <v>1.030770367190738</v>
+        <v>1.05391925139475</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050282810412215</v>
+        <v>1.042105867620266</v>
       </c>
       <c r="J25">
-        <v>1.021508711324913</v>
+        <v>1.038237052829056</v>
       </c>
       <c r="K25">
-        <v>1.047381107222408</v>
+        <v>1.051862073601922</v>
       </c>
       <c r="L25">
-        <v>1.016565331319633</v>
+        <v>1.035120277309577</v>
       </c>
       <c r="M25">
-        <v>1.042909079168003</v>
+        <v>1.056915905018437</v>
       </c>
       <c r="N25">
-        <v>1.010649717427512</v>
+        <v>1.016647676140779</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_19/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034090070943128</v>
+        <v>1.004178478997157</v>
       </c>
       <c r="D2">
-        <v>1.049855308012942</v>
+        <v>1.040256712554664</v>
       </c>
       <c r="E2">
-        <v>1.033304875265924</v>
+        <v>1.009920088148323</v>
       </c>
       <c r="F2">
-        <v>1.055222175378121</v>
+        <v>1.036923121954617</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04251631176262</v>
+        <v>1.052838840571056</v>
       </c>
       <c r="J2">
-        <v>1.039211222030667</v>
+        <v>1.026234926724158</v>
       </c>
       <c r="K2">
-        <v>1.052611205441789</v>
+        <v>1.051182311814814</v>
       </c>
       <c r="L2">
-        <v>1.036107608181488</v>
+        <v>1.021242928952527</v>
       </c>
       <c r="M2">
-        <v>1.057963227193432</v>
+        <v>1.04789095269507</v>
       </c>
       <c r="N2">
-        <v>1.016978043466171</v>
+        <v>1.01227650077104</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.0351540539071</v>
+        <v>1.009309542715387</v>
       </c>
       <c r="D3">
-        <v>1.050585347761753</v>
+        <v>1.043744368596603</v>
       </c>
       <c r="E3">
-        <v>1.034212690416723</v>
+        <v>1.014072907353987</v>
       </c>
       <c r="F3">
-        <v>1.056169275936534</v>
+        <v>1.041263131373642</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042811512221143</v>
+        <v>1.054613276554482</v>
       </c>
       <c r="J3">
-        <v>1.039917611678737</v>
+        <v>1.029549597838975</v>
       </c>
       <c r="K3">
-        <v>1.053153787275745</v>
+        <v>1.053846531129297</v>
       </c>
       <c r="L3">
-        <v>1.036824111880447</v>
+        <v>1.024528834398814</v>
       </c>
       <c r="M3">
-        <v>1.058723385100425</v>
+        <v>1.051393922170888</v>
       </c>
       <c r="N3">
-        <v>1.017217327949326</v>
+        <v>1.013416449660916</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035842644886405</v>
+        <v>1.012555463705903</v>
       </c>
       <c r="D4">
-        <v>1.051057771768489</v>
+        <v>1.045954656872069</v>
       </c>
       <c r="E4">
-        <v>1.034800556395987</v>
+        <v>1.01670598068902</v>
       </c>
       <c r="F4">
-        <v>1.056782600805362</v>
+        <v>1.044015874874357</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043001221062418</v>
+        <v>1.055725473173047</v>
       </c>
       <c r="J4">
-        <v>1.040374256055379</v>
+        <v>1.031643362444332</v>
       </c>
       <c r="K4">
-        <v>1.053504243974236</v>
+        <v>1.05552836764577</v>
       </c>
       <c r="L4">
-        <v>1.037287558152963</v>
+        <v>1.026606875224146</v>
       </c>
       <c r="M4">
-        <v>1.059215120137998</v>
+        <v>1.053610577168073</v>
       </c>
       <c r="N4">
-        <v>1.017371886578888</v>
+        <v>1.014136012445037</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036132158091744</v>
+        <v>1.013902984169815</v>
       </c>
       <c r="D5">
-        <v>1.051256387252378</v>
+        <v>1.046873106863497</v>
       </c>
       <c r="E5">
-        <v>1.035047802199947</v>
+        <v>1.017800465969605</v>
       </c>
       <c r="F5">
-        <v>1.057040558401821</v>
+        <v>1.045160311543825</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043080661765743</v>
+        <v>1.056184664369467</v>
       </c>
       <c r="J5">
-        <v>1.040566124467178</v>
+        <v>1.03251178717397</v>
       </c>
       <c r="K5">
-        <v>1.053651424461602</v>
+        <v>1.056225645315516</v>
       </c>
       <c r="L5">
-        <v>1.037482347631112</v>
+        <v>1.027469362967041</v>
       </c>
       <c r="M5">
-        <v>1.059421811783166</v>
+        <v>1.054530891121717</v>
       </c>
       <c r="N5">
-        <v>1.017436797139606</v>
+        <v>1.014434334739655</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036180770370453</v>
+        <v>1.014128257826354</v>
       </c>
       <c r="D6">
-        <v>1.051289736130846</v>
+        <v>1.047026698282878</v>
       </c>
       <c r="E6">
-        <v>1.035089322114805</v>
+        <v>1.017983517967175</v>
       </c>
       <c r="F6">
-        <v>1.05708387738355</v>
+        <v>1.045351729349025</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043093981851539</v>
+        <v>1.056261280076435</v>
       </c>
       <c r="J6">
-        <v>1.040598333859364</v>
+        <v>1.032656919892388</v>
       </c>
       <c r="K6">
-        <v>1.053676127808781</v>
+        <v>1.05634215731258</v>
       </c>
       <c r="L6">
-        <v>1.037515051090154</v>
+        <v>1.027613537806876</v>
       </c>
       <c r="M6">
-        <v>1.059456514218473</v>
+        <v>1.05468474884308</v>
       </c>
       <c r="N6">
-        <v>1.017447692039265</v>
+        <v>1.0144841831128</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035846513259689</v>
+        <v>1.01257353549039</v>
       </c>
       <c r="D7">
-        <v>1.051060425646458</v>
+        <v>1.045966971033899</v>
       </c>
       <c r="E7">
-        <v>1.034803859686938</v>
+        <v>1.016720653582607</v>
       </c>
       <c r="F7">
-        <v>1.056786047193397</v>
+        <v>1.044031216639114</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043002283782855</v>
+        <v>1.05573164151543</v>
       </c>
       <c r="J7">
-        <v>1.040376820222954</v>
+        <v>1.03165501217131</v>
       </c>
       <c r="K7">
-        <v>1.05350621120329</v>
+        <v>1.055537722680124</v>
       </c>
       <c r="L7">
-        <v>1.037290161110222</v>
+        <v>1.026618442998811</v>
       </c>
       <c r="M7">
-        <v>1.059217882095473</v>
+        <v>1.053622919384192</v>
       </c>
       <c r="N7">
-        <v>1.017372754176103</v>
+        <v>1.014140014892037</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.034449623616462</v>
+        <v>1.005928350449273</v>
       </c>
       <c r="D8">
-        <v>1.050102019579571</v>
+        <v>1.041445228987648</v>
       </c>
       <c r="E8">
-        <v>1.033611582395065</v>
+        <v>1.011335052357925</v>
       </c>
       <c r="F8">
-        <v>1.055542150981391</v>
+        <v>1.038401642830517</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042616346272438</v>
+        <v>1.05344611739017</v>
       </c>
       <c r="J8">
-        <v>1.039450040029851</v>
+        <v>1.027365970452459</v>
       </c>
       <c r="K8">
-        <v>1.052794703557342</v>
+        <v>1.052091604838818</v>
       </c>
       <c r="L8">
-        <v>1.036349790921409</v>
+        <v>1.022363641379063</v>
       </c>
       <c r="M8">
-        <v>1.058220154239628</v>
+        <v>1.049085399827993</v>
       </c>
       <c r="N8">
-        <v>1.017058967487686</v>
+        <v>1.012665579289661</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031989059595081</v>
+        <v>0.9936164480760378</v>
       </c>
       <c r="D9">
-        <v>1.048413532645907</v>
+        <v>1.033103995552796</v>
       </c>
       <c r="E9">
-        <v>1.031514097699638</v>
+        <v>1.001407407171646</v>
       </c>
       <c r="F9">
-        <v>1.053354019031798</v>
+        <v>1.028033462758016</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04192629024385</v>
+        <v>1.049131743392813</v>
       </c>
       <c r="J9">
-        <v>1.037813600125768</v>
+        <v>1.019396657496392</v>
       </c>
       <c r="K9">
-        <v>1.051536140618077</v>
+        <v>1.045681882338863</v>
       </c>
       <c r="L9">
-        <v>1.034691378845578</v>
+        <v>1.014477691372179</v>
       </c>
       <c r="M9">
-        <v>1.056461005942372</v>
+        <v>1.040687519766591</v>
       </c>
       <c r="N9">
-        <v>1.016503941607984</v>
+        <v>1.009922312515732</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.030349298953914</v>
+        <v>0.9849526988586342</v>
       </c>
       <c r="D10">
-        <v>1.047288166947789</v>
+        <v>1.027265926498289</v>
       </c>
       <c r="E10">
-        <v>1.030118129139107</v>
+        <v>0.9944597615141264</v>
       </c>
       <c r="F10">
-        <v>1.051897850783687</v>
+        <v>1.020785843482766</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041459558118224</v>
+        <v>1.04604539732822</v>
       </c>
       <c r="J10">
-        <v>1.036720411920147</v>
+        <v>1.013776313130414</v>
       </c>
       <c r="K10">
-        <v>1.050693913180701</v>
+        <v>1.041159739511984</v>
       </c>
       <c r="L10">
-        <v>1.033584875421373</v>
+        <v>1.008929772395647</v>
       </c>
       <c r="M10">
-        <v>1.055287593531256</v>
+        <v>1.034789677925795</v>
       </c>
       <c r="N10">
-        <v>1.016132527068185</v>
+        <v>1.007985666459917</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.029639406720388</v>
+        <v>0.9810805477688747</v>
       </c>
       <c r="D11">
-        <v>1.046800952508485</v>
+        <v>1.024665817357364</v>
       </c>
       <c r="E11">
-        <v>1.029514223065372</v>
+        <v>0.9913646776550115</v>
       </c>
       <c r="F11">
-        <v>1.051267937317883</v>
+        <v>1.017559617542516</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041255873578634</v>
+        <v>1.0446549374009</v>
       </c>
       <c r="J11">
-        <v>1.036246523087486</v>
+        <v>1.011262142954692</v>
       </c>
       <c r="K11">
-        <v>1.050328471609575</v>
+        <v>1.039137096159663</v>
       </c>
       <c r="L11">
-        <v>1.033105538188352</v>
+        <v>1.006451301807683</v>
       </c>
       <c r="M11">
-        <v>1.054779347850693</v>
+        <v>1.032157812579334</v>
       </c>
       <c r="N11">
-        <v>1.015971371020899</v>
+        <v>1.007118994617398</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029375740978775</v>
+        <v>0.9796229546692824</v>
       </c>
       <c r="D12">
-        <v>1.046619991759601</v>
+        <v>1.023688582386823</v>
       </c>
       <c r="E12">
-        <v>1.02928998956772</v>
+        <v>0.9902011995241593</v>
       </c>
       <c r="F12">
-        <v>1.051034052845783</v>
+        <v>1.016347264039865</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041179977952072</v>
+        <v>1.044129946461068</v>
       </c>
       <c r="J12">
-        <v>1.036070419972868</v>
+        <v>1.010315464634133</v>
       </c>
       <c r="K12">
-        <v>1.050192617997464</v>
+        <v>1.038375596124022</v>
       </c>
       <c r="L12">
-        <v>1.032927459044597</v>
+        <v>1.00551856809737</v>
       </c>
       <c r="M12">
-        <v>1.0545905407846</v>
+        <v>1.031167837602568</v>
       </c>
       <c r="N12">
-        <v>1.015911460874283</v>
+        <v>1.006792619368589</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.029432297284404</v>
+        <v>0.9799365067565281</v>
       </c>
       <c r="D13">
-        <v>1.046658807879261</v>
+        <v>1.023898730256741</v>
       </c>
       <c r="E13">
-        <v>1.029338084602583</v>
+        <v>0.9904514087341889</v>
       </c>
       <c r="F13">
-        <v>1.051084217618951</v>
+        <v>1.016607964135777</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041196268593367</v>
+        <v>1.044242950625081</v>
       </c>
       <c r="J13">
-        <v>1.036108198293938</v>
+        <v>1.010519121698825</v>
       </c>
       <c r="K13">
-        <v>1.050221764133001</v>
+        <v>1.038539410607166</v>
       </c>
       <c r="L13">
-        <v>1.032965659068312</v>
+        <v>1.005719202482971</v>
       </c>
       <c r="M13">
-        <v>1.054631041526704</v>
+        <v>1.031380762036091</v>
       </c>
       <c r="N13">
-        <v>1.015924314047224</v>
+        <v>1.006862833525467</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029617611625652</v>
+        <v>0.9809604635796081</v>
       </c>
       <c r="D14">
-        <v>1.046785993978535</v>
+        <v>1.02458527574709</v>
       </c>
       <c r="E14">
-        <v>1.029495686136749</v>
+        <v>0.9912687910880886</v>
       </c>
       <c r="F14">
-        <v>1.051248602444119</v>
+        <v>1.017459694097727</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041249604878718</v>
+        <v>1.044611717507014</v>
       </c>
       <c r="J14">
-        <v>1.036231967974453</v>
+        <v>1.011184155702525</v>
       </c>
       <c r="K14">
-        <v>1.050317244196064</v>
+        <v>1.039074361476276</v>
       </c>
       <c r="L14">
-        <v>1.033090818761502</v>
+        <v>1.006374453066544</v>
       </c>
       <c r="M14">
-        <v>1.054763741444848</v>
+        <v>1.032076237518265</v>
       </c>
       <c r="N14">
-        <v>1.015966419840879</v>
+        <v>1.007092108635218</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.029731792523823</v>
+        <v>0.9815887625462636</v>
       </c>
       <c r="D15">
-        <v>1.046864359200812</v>
+        <v>1.025006744832506</v>
       </c>
       <c r="E15">
-        <v>1.029592800798789</v>
+        <v>0.991770550241761</v>
       </c>
       <c r="F15">
-        <v>1.051349897763572</v>
+        <v>1.017982595104893</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041282435578092</v>
+        <v>1.044837786765097</v>
       </c>
       <c r="J15">
-        <v>1.036308216001022</v>
+        <v>1.011592186424632</v>
       </c>
       <c r="K15">
-        <v>1.050376057744819</v>
+        <v>1.039402594931598</v>
       </c>
       <c r="L15">
-        <v>1.033167929550905</v>
+        <v>1.00677654758004</v>
       </c>
       <c r="M15">
-        <v>1.054845499348015</v>
+        <v>1.032503081586113</v>
       </c>
       <c r="N15">
-        <v>1.015992356039381</v>
+        <v>1.007232774970811</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.030396414969654</v>
+        <v>0.9852070401679951</v>
       </c>
       <c r="D16">
-        <v>1.047320503452287</v>
+        <v>1.027436916652462</v>
       </c>
       <c r="E16">
-        <v>1.030158220172183</v>
+        <v>0.9946632784120303</v>
       </c>
       <c r="F16">
-        <v>1.051939669128359</v>
+        <v>1.020998039496309</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041473042584955</v>
+        <v>1.046136506044056</v>
       </c>
       <c r="J16">
-        <v>1.036751851178997</v>
+        <v>1.01394141482205</v>
       </c>
       <c r="K16">
-        <v>1.050718150548799</v>
+        <v>1.041292573903981</v>
       </c>
       <c r="L16">
-        <v>1.033616682963464</v>
+        <v>1.009092598931262</v>
       </c>
       <c r="M16">
-        <v>1.055321321006434</v>
+        <v>1.034962646725974</v>
       </c>
       <c r="N16">
-        <v>1.016143215499387</v>
+        <v>1.008042573188574</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.030813350893597</v>
+        <v>0.9874435807857577</v>
       </c>
       <c r="D17">
-        <v>1.047606651776507</v>
+        <v>1.028941567762129</v>
       </c>
       <c r="E17">
-        <v>1.030513042316078</v>
+        <v>0.9964540515629629</v>
       </c>
       <c r="F17">
-        <v>1.052309782833459</v>
+        <v>1.022865470419286</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041592180746837</v>
+        <v>1.046936420281266</v>
       </c>
       <c r="J17">
-        <v>1.037029989673837</v>
+        <v>1.015392984491861</v>
       </c>
       <c r="K17">
-        <v>1.050932535521488</v>
+        <v>1.042460487306692</v>
       </c>
       <c r="L17">
-        <v>1.03389811697759</v>
+        <v>1.010524541074552</v>
       </c>
       <c r="M17">
-        <v>1.055619751528933</v>
+        <v>1.036484120930991</v>
       </c>
       <c r="N17">
-        <v>1.016237757099059</v>
+        <v>1.008542857764712</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.031056555613082</v>
+        <v>0.9887365562908698</v>
       </c>
       <c r="D18">
-        <v>1.047773564556492</v>
+        <v>1.029812282718366</v>
       </c>
       <c r="E18">
-        <v>1.030720057839444</v>
+        <v>0.9974902704737619</v>
       </c>
       <c r="F18">
-        <v>1.052525723377358</v>
+        <v>1.023946279889776</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041661518936424</v>
+        <v>1.047397809551695</v>
       </c>
       <c r="J18">
-        <v>1.037192171899928</v>
+        <v>1.016231941712518</v>
       </c>
       <c r="K18">
-        <v>1.051057510098902</v>
+        <v>1.043135521829263</v>
       </c>
       <c r="L18">
-        <v>1.03406225202083</v>
+        <v>1.011352466198646</v>
       </c>
       <c r="M18">
-        <v>1.055793806455635</v>
+        <v>1.037364086207646</v>
       </c>
       <c r="N18">
-        <v>1.016292869659588</v>
+        <v>1.008831971685071</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.031139484363984</v>
+        <v>0.9891755006203999</v>
       </c>
       <c r="D19">
-        <v>1.047830478711891</v>
+        <v>1.030108017119927</v>
       </c>
       <c r="E19">
-        <v>1.030790653892957</v>
+        <v>0.9978422082827897</v>
       </c>
       <c r="F19">
-        <v>1.052599363589005</v>
+        <v>1.024313400442777</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041685135494531</v>
+        <v>1.047554262925743</v>
       </c>
       <c r="J19">
-        <v>1.037247463151763</v>
+        <v>1.016516715713095</v>
       </c>
       <c r="K19">
-        <v>1.05110011087712</v>
+        <v>1.043364656024731</v>
       </c>
       <c r="L19">
-        <v>1.034118214319587</v>
+        <v>1.011633548218487</v>
       </c>
       <c r="M19">
-        <v>1.055853152201799</v>
+        <v>1.037662881137237</v>
       </c>
       <c r="N19">
-        <v>1.016311656194437</v>
+        <v>1.008930101988886</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030768616268059</v>
+        <v>0.9872048250886203</v>
       </c>
       <c r="D20">
-        <v>1.047575950007253</v>
+        <v>1.028780853118548</v>
       </c>
       <c r="E20">
-        <v>1.030474967693784</v>
+        <v>0.9962627835421531</v>
       </c>
       <c r="F20">
-        <v>1.052270066977754</v>
+        <v>1.022665990262833</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041579414182156</v>
+        <v>1.046851136318913</v>
       </c>
       <c r="J20">
-        <v>1.037000153346114</v>
+        <v>1.015238048116054</v>
       </c>
       <c r="K20">
-        <v>1.050909541542874</v>
+        <v>1.04233582500402</v>
       </c>
       <c r="L20">
-        <v>1.033867923906401</v>
+        <v>1.010371667261758</v>
       </c>
       <c r="M20">
-        <v>1.055587734258558</v>
+        <v>1.036321659918883</v>
       </c>
       <c r="N20">
-        <v>1.016227616984449</v>
+        <v>1.008489462210487</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.029563040626713</v>
+        <v>0.9806594765942006</v>
       </c>
       <c r="D21">
-        <v>1.046748540493021</v>
+        <v>1.024383425969014</v>
       </c>
       <c r="E21">
-        <v>1.029449274088513</v>
+        <v>0.9910284807687106</v>
       </c>
       <c r="F21">
-        <v>1.051200192625066</v>
+        <v>1.017209273555308</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041233905243495</v>
+        <v>1.044503363131531</v>
       </c>
       <c r="J21">
-        <v>1.036195523087838</v>
+        <v>1.010988679161559</v>
       </c>
       <c r="K21">
-        <v>1.050289130793883</v>
+        <v>1.038917117616976</v>
       </c>
       <c r="L21">
-        <v>1.033053963231906</v>
+        <v>1.006181838337331</v>
       </c>
       <c r="M21">
-        <v>1.054724665228652</v>
+        <v>1.031871784673888</v>
       </c>
       <c r="N21">
-        <v>1.015954022102693</v>
+        <v>1.007024717780098</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.028805161959494</v>
+        <v>0.976431817050478</v>
       </c>
       <c r="D22">
-        <v>1.046228387412284</v>
+        <v>1.021552080575752</v>
       </c>
       <c r="E22">
-        <v>1.028804866597651</v>
+        <v>0.9876570291179859</v>
       </c>
       <c r="F22">
-        <v>1.050528061113661</v>
+        <v>1.013697051541327</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041015292487362</v>
+        <v>1.042977758675151</v>
       </c>
       <c r="J22">
-        <v>1.03568915902298</v>
+        <v>1.008242462210686</v>
       </c>
       <c r="K22">
-        <v>1.04989840424027</v>
+        <v>1.036708345078827</v>
       </c>
       <c r="L22">
-        <v>1.032542009074818</v>
+        <v>1.003477033345216</v>
       </c>
       <c r="M22">
-        <v>1.054181892539441</v>
+        <v>1.029001964481848</v>
       </c>
       <c r="N22">
-        <v>1.015781715147264</v>
+        <v>1.006077870773152</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.029206917062378</v>
+        <v>0.9786840451146411</v>
       </c>
       <c r="D23">
-        <v>1.046504123259804</v>
+        <v>1.023059544831062</v>
       </c>
       <c r="E23">
-        <v>1.02914643294399</v>
+        <v>0.989452207993726</v>
       </c>
       <c r="F23">
-        <v>1.050884319221845</v>
+        <v>1.015566934270719</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041131313747839</v>
+        <v>1.043791338360308</v>
       </c>
       <c r="J23">
-        <v>1.035957635868725</v>
+        <v>1.009705593668981</v>
       </c>
       <c r="K23">
-        <v>1.050105597173026</v>
+        <v>1.037885057208349</v>
       </c>
       <c r="L23">
-        <v>1.032813423110835</v>
+        <v>1.004917822997953</v>
       </c>
       <c r="M23">
-        <v>1.054469638443546</v>
+        <v>1.030530368345957</v>
       </c>
       <c r="N23">
-        <v>1.015873085485208</v>
+        <v>1.006582351023861</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.030788829879222</v>
+        <v>0.9873127441511781</v>
       </c>
       <c r="D24">
-        <v>1.047589822792723</v>
+        <v>1.028853494497736</v>
       </c>
       <c r="E24">
-        <v>1.030492171810497</v>
+        <v>0.9963492349458288</v>
       </c>
       <c r="F24">
-        <v>1.052288012679616</v>
+        <v>1.022756152758013</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041585183316181</v>
+        <v>1.046889688471618</v>
       </c>
       <c r="J24">
-        <v>1.037013635256588</v>
+        <v>1.015308080996737</v>
       </c>
       <c r="K24">
-        <v>1.050919931756219</v>
+        <v>1.042392173623302</v>
       </c>
       <c r="L24">
-        <v>1.033881566919374</v>
+        <v>1.01044076687492</v>
       </c>
       <c r="M24">
-        <v>1.055602201529816</v>
+        <v>1.036395092139847</v>
       </c>
       <c r="N24">
-        <v>1.016232198964484</v>
+        <v>1.008513597669933</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03262506499653</v>
+        <v>0.9968757440975091</v>
       </c>
       <c r="D25">
-        <v>1.048849999782697</v>
+        <v>1.035307236628099</v>
       </c>
       <c r="E25">
-        <v>1.032055934816837</v>
+        <v>1.00402924381388</v>
       </c>
       <c r="F25">
-        <v>1.05391925139475</v>
+        <v>1.030770367190738</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042105867620266</v>
+        <v>1.050282810412215</v>
       </c>
       <c r="J25">
-        <v>1.038237052829056</v>
+        <v>1.021508711324914</v>
       </c>
       <c r="K25">
-        <v>1.051862073601922</v>
+        <v>1.047381107222408</v>
       </c>
       <c r="L25">
-        <v>1.035120277309577</v>
+        <v>1.016565331319633</v>
       </c>
       <c r="M25">
-        <v>1.056915905018437</v>
+        <v>1.042909079168003</v>
       </c>
       <c r="N25">
-        <v>1.016647676140779</v>
+        <v>1.010649717427511</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_19/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004178478997157</v>
+        <v>0.9375674641323263</v>
       </c>
       <c r="D2">
-        <v>1.040256712554664</v>
+        <v>1.031715706119801</v>
       </c>
       <c r="E2">
-        <v>1.009920088148323</v>
+        <v>0.9510929669203722</v>
       </c>
       <c r="F2">
-        <v>1.036923121954617</v>
+        <v>0.9895782094387595</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052838840571056</v>
+        <v>1.052614864844927</v>
       </c>
       <c r="J2">
-        <v>1.026234926724158</v>
+        <v>0.9617905629520282</v>
       </c>
       <c r="K2">
-        <v>1.051182311814814</v>
+        <v>1.042750189770583</v>
       </c>
       <c r="L2">
-        <v>1.021242928952527</v>
+        <v>0.9632784912833962</v>
       </c>
       <c r="M2">
-        <v>1.04789095269507</v>
+        <v>1.001184671512352</v>
       </c>
       <c r="N2">
-        <v>1.01227650077104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>0.9882587122690167</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.009509285116754</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.041298369632937</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009309542715387</v>
+        <v>0.9467063538240734</v>
       </c>
       <c r="D3">
-        <v>1.043744368596603</v>
+        <v>1.034439458255106</v>
       </c>
       <c r="E3">
-        <v>1.014072907353987</v>
+        <v>0.9588269428956182</v>
       </c>
       <c r="F3">
-        <v>1.041263131373642</v>
+        <v>0.994974144989591</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054613276554482</v>
+        <v>1.053507996487436</v>
       </c>
       <c r="J3">
-        <v>1.029549597838975</v>
+        <v>0.9687633818327704</v>
       </c>
       <c r="K3">
-        <v>1.053846531129297</v>
+        <v>1.044649856380049</v>
       </c>
       <c r="L3">
-        <v>1.024528834398814</v>
+        <v>0.9700152328423541</v>
       </c>
       <c r="M3">
-        <v>1.051393922170888</v>
+        <v>1.005671739060918</v>
       </c>
       <c r="N3">
-        <v>1.013416449660916</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>0.9909891161809543</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.013060650225228</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.042638935470448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012555463705903</v>
+        <v>0.9523775021722242</v>
       </c>
       <c r="D4">
-        <v>1.045954656872069</v>
+        <v>1.036133409336444</v>
       </c>
       <c r="E4">
-        <v>1.01670598068902</v>
+        <v>0.9636317899218557</v>
       </c>
       <c r="F4">
-        <v>1.044015874874357</v>
+        <v>0.9983481210817456</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055725473173047</v>
+        <v>1.054042170556441</v>
       </c>
       <c r="J4">
-        <v>1.031643362444332</v>
+        <v>0.973083157629126</v>
       </c>
       <c r="K4">
-        <v>1.05552836764577</v>
+        <v>1.045814450626915</v>
       </c>
       <c r="L4">
-        <v>1.026606875224146</v>
+        <v>0.9741899127006289</v>
       </c>
       <c r="M4">
-        <v>1.053610577168073</v>
+        <v>1.00846652379767</v>
       </c>
       <c r="N4">
-        <v>1.014136012445037</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>0.9926762533620912</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.015272619822092</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.043463288865272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013902984169815</v>
+        <v>0.9547078236893722</v>
       </c>
       <c r="D5">
-        <v>1.046873106863497</v>
+        <v>1.036820365902871</v>
       </c>
       <c r="E5">
-        <v>1.017800465969605</v>
+        <v>0.9656072828847104</v>
       </c>
       <c r="F5">
-        <v>1.045160311543825</v>
+        <v>0.9997403189848072</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056184664369467</v>
+        <v>1.054251776611013</v>
       </c>
       <c r="J5">
-        <v>1.03251178717397</v>
+        <v>0.9748563429560165</v>
       </c>
       <c r="K5">
-        <v>1.056225645315516</v>
+        <v>1.046279834987323</v>
       </c>
       <c r="L5">
-        <v>1.027469362967041</v>
+        <v>0.9759037808323688</v>
       </c>
       <c r="M5">
-        <v>1.054530891121717</v>
+        <v>1.009617200227783</v>
       </c>
       <c r="N5">
-        <v>1.014434334739655</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>0.9933676337391186</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.016183335836391</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.04379948592627</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014128257826354</v>
+        <v>0.9550960510080672</v>
       </c>
       <c r="D6">
-        <v>1.047026698282878</v>
+        <v>1.036923559183467</v>
       </c>
       <c r="E6">
-        <v>1.017983517967175</v>
+        <v>0.9659364586418575</v>
       </c>
       <c r="F6">
-        <v>1.045351729349025</v>
+        <v>0.9999725894344288</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056261280076435</v>
+        <v>1.054280661119951</v>
       </c>
       <c r="J6">
-        <v>1.032656919892388</v>
+        <v>0.9751516406096146</v>
       </c>
       <c r="K6">
-        <v>1.05634215731258</v>
+        <v>1.046345994442322</v>
       </c>
       <c r="L6">
-        <v>1.027613537806876</v>
+        <v>0.9761892133464313</v>
       </c>
       <c r="M6">
-        <v>1.05468474884308</v>
+        <v>1.009809029295351</v>
       </c>
       <c r="N6">
-        <v>1.0144841831128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>0.99348270186716</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.016335161022212</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.043854965548818</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01257353549039</v>
+        <v>0.9524088463856468</v>
       </c>
       <c r="D7">
-        <v>1.045966971033899</v>
+        <v>1.036111273391725</v>
       </c>
       <c r="E7">
-        <v>1.016720653582607</v>
+        <v>0.963658357177825</v>
       </c>
       <c r="F7">
-        <v>1.044031216639114</v>
+        <v>0.9983668243487207</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05573164151543</v>
+        <v>1.054029050242699</v>
       </c>
       <c r="J7">
-        <v>1.03165501217131</v>
+        <v>0.9731070154976903</v>
       </c>
       <c r="K7">
-        <v>1.055537722680124</v>
+        <v>1.045789697503903</v>
       </c>
       <c r="L7">
-        <v>1.026618442998811</v>
+        <v>0.9742129715525527</v>
       </c>
       <c r="M7">
-        <v>1.053622919384192</v>
+        <v>1.008481992302426</v>
       </c>
       <c r="N7">
-        <v>1.014140014892037</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>0.9926855604777238</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.015284862555373</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.043465798598075</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005928350449273</v>
+        <v>0.9407088501925468</v>
       </c>
       <c r="D8">
-        <v>1.041445228987648</v>
+        <v>1.03260585356644</v>
       </c>
       <c r="E8">
-        <v>1.011335052357925</v>
+        <v>0.9537501362844508</v>
       </c>
       <c r="F8">
-        <v>1.038401642830517</v>
+        <v>0.9914273587646155</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05344611739017</v>
+        <v>1.052903121643441</v>
       </c>
       <c r="J8">
-        <v>1.027365970452459</v>
+        <v>0.9641888475221219</v>
       </c>
       <c r="K8">
-        <v>1.052091604838818</v>
+        <v>1.043361553493804</v>
       </c>
       <c r="L8">
-        <v>1.022363641379063</v>
+        <v>0.9655953074965351</v>
       </c>
       <c r="M8">
-        <v>1.049085399827993</v>
+        <v>1.002724717879768</v>
       </c>
       <c r="N8">
-        <v>1.012665579289661</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>0.9891986976088145</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.01072818292584</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.04175346688005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9936164480760378</v>
+        <v>0.9180171641449638</v>
       </c>
       <c r="D9">
-        <v>1.033103995552796</v>
+        <v>1.025947010716003</v>
       </c>
       <c r="E9">
-        <v>1.001407407171646</v>
+        <v>0.9345897238211873</v>
       </c>
       <c r="F9">
-        <v>1.028033462758016</v>
+        <v>0.9781991200831379</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049131743392813</v>
+        <v>1.050606670493526</v>
       </c>
       <c r="J9">
-        <v>1.019396657496392</v>
+        <v>0.9468386125336941</v>
       </c>
       <c r="K9">
-        <v>1.045681882338863</v>
+        <v>1.038632689353211</v>
       </c>
       <c r="L9">
-        <v>1.014477691372179</v>
+        <v>0.9488413701762625</v>
       </c>
       <c r="M9">
-        <v>1.040687519766591</v>
+        <v>0.9916560899025898</v>
       </c>
       <c r="N9">
-        <v>1.009922312515732</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>0.9823837726665738</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.001967663432522</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.038406695480406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9849526988586342</v>
+        <v>0.9017395162034227</v>
       </c>
       <c r="D10">
-        <v>1.027265926498289</v>
+        <v>1.02110146556607</v>
       </c>
       <c r="E10">
-        <v>0.9944597615141264</v>
+        <v>0.9209425987858296</v>
       </c>
       <c r="F10">
-        <v>1.020785843482766</v>
+        <v>0.9691309492332499</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04604539732822</v>
+        <v>1.048825044833017</v>
       </c>
       <c r="J10">
-        <v>1.013776313130414</v>
+        <v>0.9344777684639716</v>
       </c>
       <c r="K10">
-        <v>1.041159739511984</v>
+        <v>1.035099899453645</v>
       </c>
       <c r="L10">
-        <v>1.008929772395647</v>
+        <v>0.9369027292354598</v>
       </c>
       <c r="M10">
-        <v>1.034789677925795</v>
+        <v>0.9840808555903354</v>
       </c>
       <c r="N10">
-        <v>1.007985666459917</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.9775443298822467</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>0.9960262319795061</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.035925579649869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9810805477688747</v>
+        <v>0.8993157377591694</v>
       </c>
       <c r="D11">
-        <v>1.024665817357364</v>
+        <v>1.018835753426408</v>
       </c>
       <c r="E11">
-        <v>0.9913646776550115</v>
+        <v>0.9193061192036411</v>
       </c>
       <c r="F11">
-        <v>1.017559617542516</v>
+        <v>0.9697211977699713</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0446549374009</v>
+        <v>1.047958405731333</v>
       </c>
       <c r="J11">
-        <v>1.011262142954692</v>
+        <v>0.93357239094897</v>
       </c>
       <c r="K11">
-        <v>1.039137096159663</v>
+        <v>1.033410987307602</v>
       </c>
       <c r="L11">
-        <v>1.006451301807683</v>
+        <v>0.9359290713393161</v>
       </c>
       <c r="M11">
-        <v>1.032157812579334</v>
+        <v>0.9852376460351738</v>
       </c>
       <c r="N11">
-        <v>1.007118994617398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9774533866466528</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>0.997399683230634</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.034764279347169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9796229546692824</v>
+        <v>0.9003678264594125</v>
       </c>
       <c r="D12">
-        <v>1.023688582386823</v>
+        <v>1.018013637475623</v>
       </c>
       <c r="E12">
-        <v>0.9902011995241593</v>
+        <v>0.9205021182442056</v>
       </c>
       <c r="F12">
-        <v>1.016347264039865</v>
+        <v>0.9716200005749264</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044129946461068</v>
+        <v>1.047644802585687</v>
       </c>
       <c r="J12">
-        <v>1.010315464634133</v>
+        <v>0.9350815006695099</v>
       </c>
       <c r="K12">
-        <v>1.038375596124022</v>
+        <v>1.032803674852104</v>
       </c>
       <c r="L12">
-        <v>1.00551856809737</v>
+        <v>0.9373291691578934</v>
       </c>
       <c r="M12">
-        <v>1.031167837602568</v>
+        <v>0.9873118909611378</v>
       </c>
       <c r="N12">
-        <v>1.006792619368589</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.9782821568565178</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>0.999380698201798</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.034334889399926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9799365067565281</v>
+        <v>0.9040864733316415</v>
       </c>
       <c r="D13">
-        <v>1.023898730256741</v>
+        <v>1.018198012391346</v>
       </c>
       <c r="E13">
-        <v>0.9904514087341889</v>
+        <v>0.923881931003547</v>
       </c>
       <c r="F13">
-        <v>1.016607964135777</v>
+        <v>0.9746305253252439</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044242950625081</v>
+        <v>1.047716200549022</v>
       </c>
       <c r="J13">
-        <v>1.010519121698825</v>
+        <v>0.9384782637926917</v>
       </c>
       <c r="K13">
-        <v>1.038539410607166</v>
+        <v>1.032941786737803</v>
       </c>
       <c r="L13">
-        <v>1.005719202482971</v>
+        <v>0.9405791821228506</v>
       </c>
       <c r="M13">
-        <v>1.031380762036091</v>
+        <v>0.9902147266419926</v>
       </c>
       <c r="N13">
-        <v>1.006862833525467</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.9798417475901623</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.001962357725002</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.034430044465668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9809604635796081</v>
+        <v>0.9077932087234908</v>
       </c>
       <c r="D14">
-        <v>1.02458527574709</v>
+        <v>1.018771207122093</v>
       </c>
       <c r="E14">
-        <v>0.9912687910880886</v>
+        <v>0.9271470360189009</v>
       </c>
       <c r="F14">
-        <v>1.017459694097727</v>
+        <v>0.977167788386908</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044611717507014</v>
+        <v>1.04793423915099</v>
       </c>
       <c r="J14">
-        <v>1.011184155702525</v>
+        <v>0.9416194222685822</v>
       </c>
       <c r="K14">
-        <v>1.039074361476276</v>
+        <v>1.033364117080851</v>
       </c>
       <c r="L14">
-        <v>1.006374453066544</v>
+        <v>0.9436063162102867</v>
       </c>
       <c r="M14">
-        <v>1.032076237518265</v>
+        <v>0.9925510793980533</v>
       </c>
       <c r="N14">
-        <v>1.007092108635218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.9812284517685674</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.003987495091628</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.03473007202289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9815887625462636</v>
+        <v>0.90929600922458</v>
       </c>
       <c r="D15">
-        <v>1.025006744832506</v>
+        <v>1.019108068208946</v>
       </c>
       <c r="E15">
-        <v>0.991770550241761</v>
+        <v>0.9284360964159508</v>
       </c>
       <c r="F15">
-        <v>1.017982595104893</v>
+        <v>0.9780869327353807</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044837786765097</v>
+        <v>1.048060129525918</v>
       </c>
       <c r="J15">
-        <v>1.011592186424632</v>
+        <v>0.9428201277717915</v>
       </c>
       <c r="K15">
-        <v>1.039402594931598</v>
+        <v>1.033608434236134</v>
       </c>
       <c r="L15">
-        <v>1.00677654758004</v>
+        <v>0.9447664548720723</v>
       </c>
       <c r="M15">
-        <v>1.032503081586113</v>
+        <v>0.9933599755260532</v>
       </c>
       <c r="N15">
-        <v>1.007232774970811</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.9817324626450549</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.004665316257208</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.034908687155652</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9852070401679951</v>
+        <v>0.9152775022603263</v>
       </c>
       <c r="D16">
-        <v>1.027436916652462</v>
+        <v>1.021131959861316</v>
       </c>
       <c r="E16">
-        <v>0.9946632784120303</v>
+        <v>0.9333731934341887</v>
       </c>
       <c r="F16">
-        <v>1.020998039496309</v>
+        <v>0.9812715061444748</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046136506044056</v>
+        <v>1.048821683074063</v>
       </c>
       <c r="J16">
-        <v>1.01394141482205</v>
+        <v>0.9472191970095338</v>
       </c>
       <c r="K16">
-        <v>1.041292573903981</v>
+        <v>1.035094283000654</v>
       </c>
       <c r="L16">
-        <v>1.009092598931262</v>
+        <v>0.9490188841864358</v>
       </c>
       <c r="M16">
-        <v>1.034962646725974</v>
+        <v>0.9959496482484118</v>
       </c>
       <c r="N16">
-        <v>1.008042573188574</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.9834016835843687</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.006672417988897</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.035962398534004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9874435807857577</v>
+        <v>0.9179676550025028</v>
       </c>
       <c r="D17">
-        <v>1.028941567762129</v>
+        <v>1.02237598975767</v>
       </c>
       <c r="E17">
-        <v>0.9964540515629629</v>
+        <v>0.9354913834774465</v>
       </c>
       <c r="F17">
-        <v>1.022865470419286</v>
+        <v>0.9824129469362339</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046936420281266</v>
+        <v>1.049283697795483</v>
       </c>
       <c r="J17">
-        <v>1.015392984491861</v>
+        <v>0.9489890569668421</v>
       </c>
       <c r="K17">
-        <v>1.042460487306692</v>
+        <v>1.036002740848744</v>
       </c>
       <c r="L17">
-        <v>1.010524541074552</v>
+        <v>0.9507336354343218</v>
       </c>
       <c r="M17">
-        <v>1.036484120930991</v>
+        <v>0.9967365316957733</v>
       </c>
       <c r="N17">
-        <v>1.008542857764712</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>0.9839708418290208</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.007161896497595</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.036607293745203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9887365562908698</v>
+        <v>0.9179825998542638</v>
       </c>
       <c r="D18">
-        <v>1.029812282718366</v>
+        <v>1.023127625980183</v>
       </c>
       <c r="E18">
-        <v>0.9974902704737619</v>
+        <v>0.9352877770239515</v>
       </c>
       <c r="F18">
-        <v>1.023946279889776</v>
+        <v>0.9816892205442764</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047397809551695</v>
+        <v>1.049565349526274</v>
       </c>
       <c r="J18">
-        <v>1.016231941712518</v>
+        <v>0.9485471418050145</v>
       </c>
       <c r="K18">
-        <v>1.043135521829263</v>
+        <v>1.036558740779539</v>
       </c>
       <c r="L18">
-        <v>1.011352466198646</v>
+        <v>0.9503255547567669</v>
       </c>
       <c r="M18">
-        <v>1.037364086207646</v>
+        <v>0.9958316889577121</v>
       </c>
       <c r="N18">
-        <v>1.008831971685071</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>0.9836048544910075</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.006201539765094</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.036988772198025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9891755006203999</v>
+        <v>0.9155376688929582</v>
       </c>
       <c r="D19">
-        <v>1.030108017119927</v>
+        <v>1.023355270026981</v>
       </c>
       <c r="E19">
-        <v>0.9978422082827897</v>
+        <v>0.9329591062465173</v>
       </c>
       <c r="F19">
-        <v>1.024313400442777</v>
+        <v>0.9791444698901673</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047554262925743</v>
+        <v>1.049646710573687</v>
       </c>
       <c r="J19">
-        <v>1.016516715713095</v>
+        <v>0.9460644969846262</v>
       </c>
       <c r="K19">
-        <v>1.043364656024731</v>
+        <v>1.036720231999299</v>
       </c>
       <c r="L19">
-        <v>1.011633548218487</v>
+        <v>0.9479734962934739</v>
       </c>
       <c r="M19">
-        <v>1.037662881137237</v>
+        <v>0.9932666405941917</v>
       </c>
       <c r="N19">
-        <v>1.008930101988886</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.9824049525006781</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.003835655435048</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.037109338987922</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9872048250886203</v>
+        <v>0.906068556436198</v>
       </c>
       <c r="D20">
-        <v>1.028780853118548</v>
+        <v>1.022246233228502</v>
       </c>
       <c r="E20">
-        <v>0.9962627835421531</v>
+        <v>0.924568828644056</v>
       </c>
       <c r="F20">
-        <v>1.022665990262833</v>
+        <v>0.9715396778242676</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046851136318913</v>
+        <v>1.049236113229909</v>
       </c>
       <c r="J20">
-        <v>1.015238048116054</v>
+        <v>0.9377708732657164</v>
       </c>
       <c r="K20">
-        <v>1.04233582500402</v>
+        <v>1.035908872219014</v>
       </c>
       <c r="L20">
-        <v>1.010371667261758</v>
+        <v>0.9400817521908212</v>
       </c>
       <c r="M20">
-        <v>1.036321659918883</v>
+        <v>0.9861021350072445</v>
       </c>
       <c r="N20">
-        <v>1.008489462210487</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.9788352786104988</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>0.9976148357319353</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.036539590958871</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9806594765942006</v>
+        <v>0.8924238828698766</v>
       </c>
       <c r="D21">
-        <v>1.024383425969014</v>
+        <v>1.018561762570791</v>
       </c>
       <c r="E21">
-        <v>0.9910284807687106</v>
+        <v>0.9130855599952845</v>
       </c>
       <c r="F21">
-        <v>1.017209273555308</v>
+        <v>0.9636281607910756</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044503363131531</v>
+        <v>1.047849518512412</v>
       </c>
       <c r="J21">
-        <v>1.010988679161559</v>
+        <v>0.9272261504005214</v>
       </c>
       <c r="K21">
-        <v>1.038917117616976</v>
+        <v>1.033199807862704</v>
       </c>
       <c r="L21">
-        <v>1.006181838337331</v>
+        <v>0.9299245034931435</v>
       </c>
       <c r="M21">
-        <v>1.031871784673888</v>
+        <v>0.979333003080748</v>
       </c>
       <c r="N21">
-        <v>1.007024717780098</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9746601038767702</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>0.9922141288708558</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.034627420902551</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.976431817050478</v>
+        <v>0.8836100693733604</v>
       </c>
       <c r="D22">
-        <v>1.021552080575752</v>
+        <v>1.016211729832293</v>
       </c>
       <c r="E22">
-        <v>0.9876570291179859</v>
+        <v>0.9057099267747009</v>
       </c>
       <c r="F22">
-        <v>1.013697051541327</v>
+        <v>0.9586939171911405</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042977758675151</v>
+        <v>1.046951810210823</v>
       </c>
       <c r="J22">
-        <v>1.008242462210686</v>
+        <v>0.9204692271399616</v>
       </c>
       <c r="K22">
-        <v>1.036708345078827</v>
+        <v>1.031468728027044</v>
       </c>
       <c r="L22">
-        <v>1.003477033345216</v>
+        <v>0.9234131930778567</v>
       </c>
       <c r="M22">
-        <v>1.029001964481848</v>
+        <v>0.9751306028932449</v>
       </c>
       <c r="N22">
-        <v>1.006077870773152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9719994695860691</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>0.9888879575743456</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.033389965836678</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9786840451146411</v>
+        <v>0.8883371822210067</v>
       </c>
       <c r="D23">
-        <v>1.023059544831062</v>
+        <v>1.017515413763638</v>
       </c>
       <c r="E23">
-        <v>0.989452207993726</v>
+        <v>0.9096636636397165</v>
       </c>
       <c r="F23">
-        <v>1.015566934270719</v>
+        <v>0.9613349932713544</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043791338360308</v>
+        <v>1.047457812287321</v>
       </c>
       <c r="J23">
-        <v>1.009705593668981</v>
+        <v>0.9240931150173325</v>
       </c>
       <c r="K23">
-        <v>1.037885057208349</v>
+        <v>1.032442726050402</v>
       </c>
       <c r="L23">
-        <v>1.004917822997953</v>
+        <v>0.9269049512215135</v>
       </c>
       <c r="M23">
-        <v>1.030530368345957</v>
+        <v>0.9773817651604438</v>
       </c>
       <c r="N23">
-        <v>1.006582351023861</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9734262591929742</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>0.9906697395704543</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.034068981742208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9873127441511781</v>
+        <v>0.9058122441412014</v>
       </c>
       <c r="D24">
-        <v>1.028853494497736</v>
+        <v>1.022379448430005</v>
       </c>
       <c r="E24">
-        <v>0.9963492349458288</v>
+        <v>0.9243194792463701</v>
       </c>
       <c r="F24">
-        <v>1.022756152758013</v>
+        <v>0.9712051939043238</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046889688471618</v>
+        <v>1.049295374499284</v>
       </c>
       <c r="J24">
-        <v>1.015308080996737</v>
+        <v>0.9374888384780458</v>
       </c>
       <c r="K24">
-        <v>1.042392173623302</v>
+        <v>1.03602463256238</v>
       </c>
       <c r="L24">
-        <v>1.01044076687492</v>
+        <v>0.9398201312732704</v>
       </c>
       <c r="M24">
-        <v>1.036395092139847</v>
+        <v>0.9857575796413918</v>
       </c>
       <c r="N24">
-        <v>1.008513597669933</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.9787024907910847</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>0.9972991022324779</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.036594058347644</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9968757440975091</v>
+        <v>0.9241634316829429</v>
       </c>
       <c r="D25">
-        <v>1.035307236628099</v>
+        <v>1.027667473555817</v>
       </c>
       <c r="E25">
-        <v>1.00402924381388</v>
+        <v>0.9397714987733927</v>
       </c>
       <c r="F25">
-        <v>1.030770367190738</v>
+        <v>0.9817528797441953</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050282810412215</v>
+        <v>1.051207802065177</v>
       </c>
       <c r="J25">
-        <v>1.021508711324914</v>
+        <v>0.951543331053345</v>
       </c>
       <c r="K25">
-        <v>1.047381107222408</v>
+        <v>1.039850950245989</v>
       </c>
       <c r="L25">
-        <v>1.016565331319633</v>
+        <v>0.9533827533346495</v>
       </c>
       <c r="M25">
-        <v>1.042909079168003</v>
+        <v>0.9946412211602083</v>
       </c>
       <c r="N25">
-        <v>1.010649717427511</v>
+        <v>0.9842345103768326</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.004330325974235</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.039296591442811</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_19/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9375674641323263</v>
+        <v>0.9431093048272845</v>
       </c>
       <c r="D2">
-        <v>1.031715706119801</v>
+        <v>1.032671052550762</v>
       </c>
       <c r="E2">
-        <v>0.9510929669203722</v>
+        <v>0.9558719677472093</v>
       </c>
       <c r="F2">
-        <v>0.9895782094387595</v>
+        <v>0.9919784157709768</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052614864844927</v>
+        <v>1.053100012515649</v>
       </c>
       <c r="J2">
-        <v>0.9617905629520282</v>
+        <v>0.9671357832284695</v>
       </c>
       <c r="K2">
-        <v>1.042750189770583</v>
+        <v>1.043693245183141</v>
       </c>
       <c r="L2">
-        <v>0.9632784912833962</v>
+        <v>0.9679823440236809</v>
       </c>
       <c r="M2">
-        <v>1.001184671512352</v>
+        <v>1.003550646910112</v>
       </c>
       <c r="N2">
-        <v>0.9882587122690167</v>
+        <v>0.9961239133680618</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.009509285116754</v>
+        <v>1.011381878584149</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.041298369632937</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041973922719034</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02168279696274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9467063538240734</v>
+        <v>0.9516721712219373</v>
       </c>
       <c r="D3">
-        <v>1.034439458255106</v>
+        <v>1.034642566585707</v>
       </c>
       <c r="E3">
-        <v>0.9588269428956182</v>
+        <v>0.9631139884292369</v>
       </c>
       <c r="F3">
-        <v>0.994974144989591</v>
+        <v>0.9971223723816871</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.053507996487436</v>
+        <v>1.053611245033863</v>
       </c>
       <c r="J3">
-        <v>0.9687633818327704</v>
+        <v>0.9735729944104849</v>
       </c>
       <c r="K3">
-        <v>1.044649856380049</v>
+        <v>1.044850576411985</v>
       </c>
       <c r="L3">
-        <v>0.9700152328423541</v>
+        <v>0.9742416505998646</v>
       </c>
       <c r="M3">
-        <v>1.005671739060918</v>
+        <v>1.007792205888405</v>
       </c>
       <c r="N3">
-        <v>0.9909891161809543</v>
+        <v>0.9981542832202164</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.013060650225228</v>
+        <v>1.014738922617691</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.042638935470448</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042789322417293</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022177452463834</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9523775021722242</v>
+        <v>0.9569995543468993</v>
       </c>
       <c r="D4">
-        <v>1.036133409336444</v>
+        <v>1.035879113606278</v>
       </c>
       <c r="E4">
-        <v>0.9636317899218557</v>
+        <v>0.9676246830928066</v>
       </c>
       <c r="F4">
-        <v>0.9983481210817456</v>
+        <v>1.000346094574587</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054042170556441</v>
+        <v>1.053912814557925</v>
       </c>
       <c r="J4">
-        <v>0.973083157629126</v>
+        <v>0.977571062033199</v>
       </c>
       <c r="K4">
-        <v>1.045814450626915</v>
+        <v>1.045562967168456</v>
       </c>
       <c r="L4">
-        <v>0.9741899127006289</v>
+        <v>0.9781302198790141</v>
       </c>
       <c r="M4">
-        <v>1.00846652379767</v>
+        <v>1.010440344333799</v>
       </c>
       <c r="N4">
-        <v>0.9926762533620912</v>
+        <v>0.9994117638793329</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.015272619822092</v>
+        <v>1.016834821875974</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.043463288865272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043294011146812</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022474858616132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9547078236893722</v>
+        <v>0.9591915478540475</v>
       </c>
       <c r="D5">
-        <v>1.036820365902871</v>
+        <v>1.036388149721046</v>
       </c>
       <c r="E5">
-        <v>0.9656072828847104</v>
+        <v>0.9694816965760444</v>
       </c>
       <c r="F5">
-        <v>0.9997403189848072</v>
+        <v>1.001677863831725</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054251776611013</v>
+        <v>1.054031852894684</v>
       </c>
       <c r="J5">
-        <v>0.9748563429560165</v>
+        <v>0.9792143522705732</v>
       </c>
       <c r="K5">
-        <v>1.046279834987323</v>
+        <v>1.045852273277076</v>
       </c>
       <c r="L5">
-        <v>0.9759037808323688</v>
+        <v>0.9797287083185271</v>
       </c>
       <c r="M5">
-        <v>1.009617200227783</v>
+        <v>1.011531987618712</v>
       </c>
       <c r="N5">
-        <v>0.9933676337391186</v>
+        <v>0.9999276824646305</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.016183335836391</v>
+        <v>1.01769881341685</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.04379948592627</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043506409279756</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022589975024446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9550960510080672</v>
+        <v>0.9595568928870589</v>
       </c>
       <c r="D6">
-        <v>1.036923559183467</v>
+        <v>1.036471139541299</v>
       </c>
       <c r="E6">
-        <v>0.9659364586418575</v>
+        <v>0.9697912670938063</v>
       </c>
       <c r="F6">
-        <v>0.9999725894344288</v>
+        <v>1.001900140086234</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054280661119951</v>
+        <v>1.054050446324455</v>
       </c>
       <c r="J6">
-        <v>0.9751516406096146</v>
+        <v>0.9794881379324329</v>
       </c>
       <c r="K6">
-        <v>1.046345994442322</v>
+        <v>1.045898424968658</v>
       </c>
       <c r="L6">
-        <v>0.9761892133464313</v>
+        <v>0.9799950407055851</v>
       </c>
       <c r="M6">
-        <v>1.009809029295351</v>
+        <v>1.011714050156691</v>
       </c>
       <c r="N6">
-        <v>0.99348270186716</v>
+        <v>1.000013581628057</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.016335161022212</v>
+        <v>1.017842908447818</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043854965548818</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043548600658719</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022603430980409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9524088463856468</v>
+        <v>0.9570578465016839</v>
       </c>
       <c r="D7">
-        <v>1.036111273391725</v>
+        <v>1.035880105727482</v>
       </c>
       <c r="E7">
-        <v>0.963658357177825</v>
+        <v>0.9676779868094415</v>
       </c>
       <c r="F7">
-        <v>0.9983668243487207</v>
+        <v>1.000376437916135</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.054029050242699</v>
+        <v>1.053911458719175</v>
       </c>
       <c r="J7">
-        <v>0.9731070154976903</v>
+        <v>0.977621153157159</v>
       </c>
       <c r="K7">
-        <v>1.045789697503903</v>
+        <v>1.045561085549753</v>
       </c>
       <c r="L7">
-        <v>0.9742129715525527</v>
+        <v>0.9781796865325673</v>
       </c>
       <c r="M7">
-        <v>1.008481992302426</v>
+        <v>1.010467321847611</v>
       </c>
       <c r="N7">
-        <v>0.9926855604777238</v>
+        <v>0.999457465066739</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.015284862555373</v>
+        <v>1.016856173501457</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.043465798598075</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043314665332055</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022461002798823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9407088501925468</v>
+        <v>0.9461416664207082</v>
       </c>
       <c r="D8">
-        <v>1.03260585356644</v>
+        <v>1.033335368472088</v>
       </c>
       <c r="E8">
-        <v>0.9537501362844508</v>
+        <v>0.9584486404793193</v>
       </c>
       <c r="F8">
-        <v>0.9914273587646155</v>
+        <v>0.9937794329130057</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.052903121643441</v>
+        <v>1.053273713372082</v>
       </c>
       <c r="J8">
-        <v>0.9641888475221219</v>
+        <v>0.9694365280216972</v>
       </c>
       <c r="K8">
-        <v>1.043361553493804</v>
+        <v>1.044081957631537</v>
       </c>
       <c r="L8">
-        <v>0.9655953074965351</v>
+        <v>0.9702225044568884</v>
       </c>
       <c r="M8">
-        <v>1.002724717879768</v>
+        <v>1.005044330304511</v>
       </c>
       <c r="N8">
-        <v>0.9891986976088145</v>
+        <v>0.9969429370759288</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.01072818292584</v>
+        <v>1.012564078179376</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.04175346688005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042273806848243</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021833320647144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9180171641449638</v>
+        <v>0.9250040506812583</v>
       </c>
       <c r="D9">
-        <v>1.025947010716003</v>
+        <v>1.028560056392759</v>
       </c>
       <c r="E9">
-        <v>0.9345897238211873</v>
+        <v>0.9406143953074992</v>
       </c>
       <c r="F9">
-        <v>0.9781991200831379</v>
+        <v>0.9812316427767622</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050606670493526</v>
+        <v>1.051931032202239</v>
       </c>
       <c r="J9">
-        <v>0.9468386125336941</v>
+        <v>0.9535145184672922</v>
       </c>
       <c r="K9">
-        <v>1.038632689353211</v>
+        <v>1.04120615833306</v>
       </c>
       <c r="L9">
-        <v>0.9488413701762625</v>
+        <v>0.9547505191515958</v>
       </c>
       <c r="M9">
-        <v>0.9916560899025898</v>
+        <v>0.9946367444979715</v>
       </c>
       <c r="N9">
-        <v>0.9823837726665738</v>
+        <v>0.9919182526772395</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.001967663432522</v>
+        <v>1.004326782805979</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.038406695480406</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040237012143812</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020579857553931</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9017395162034227</v>
+        <v>0.9101041463062904</v>
       </c>
       <c r="D10">
-        <v>1.02110146556607</v>
+        <v>1.025158086322771</v>
       </c>
       <c r="E10">
-        <v>0.9209425987858296</v>
+        <v>0.9281574674753993</v>
       </c>
       <c r="F10">
-        <v>0.9691309492332499</v>
+        <v>0.9727620426375203</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048825044833017</v>
+        <v>1.050877976919746</v>
       </c>
       <c r="J10">
-        <v>0.9344777684639716</v>
+        <v>0.942401716950149</v>
       </c>
       <c r="K10">
-        <v>1.035099899453645</v>
+        <v>1.039087490112114</v>
       </c>
       <c r="L10">
-        <v>0.9369027292354598</v>
+        <v>0.9439574655937886</v>
       </c>
       <c r="M10">
-        <v>0.9840808555903354</v>
+        <v>0.9876411403753295</v>
       </c>
       <c r="N10">
-        <v>0.9775443298822467</v>
+        <v>0.9885603228400848</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>0.9960262319795061</v>
+        <v>0.998843946673368</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.035925579649869</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.038757395492991</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019615551944092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8993157377591694</v>
+        <v>0.9080393633636593</v>
       </c>
       <c r="D11">
-        <v>1.018835753426408</v>
+        <v>1.023611107198032</v>
       </c>
       <c r="E11">
-        <v>0.9193061192036411</v>
+        <v>0.9268599293642713</v>
       </c>
       <c r="F11">
-        <v>0.9697211977699713</v>
+        <v>0.9734712188959108</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047958405731333</v>
+        <v>1.050373518094455</v>
       </c>
       <c r="J11">
-        <v>0.93357239094897</v>
+        <v>0.9418100069036308</v>
       </c>
       <c r="K11">
-        <v>1.033410987307602</v>
+        <v>1.038101078556553</v>
       </c>
       <c r="L11">
-        <v>0.9359290713393161</v>
+        <v>0.9433068395143605</v>
       </c>
       <c r="M11">
-        <v>0.9852376460351738</v>
+        <v>0.9889113912595762</v>
       </c>
       <c r="N11">
-        <v>0.9774533866466528</v>
+        <v>0.9888666546861178</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>0.997399683230634</v>
+        <v>1.000305581448987</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.034764279347169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038095864133236</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019138601800667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9003678264594125</v>
+        <v>0.9090207436552519</v>
       </c>
       <c r="D12">
-        <v>1.018013637475623</v>
+        <v>1.023038825077009</v>
       </c>
       <c r="E12">
-        <v>0.9205021182442056</v>
+        <v>0.9280056266330158</v>
       </c>
       <c r="F12">
-        <v>0.9716200005749264</v>
+        <v>0.9753140243861924</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047644802585687</v>
+        <v>1.050185667413607</v>
       </c>
       <c r="J12">
-        <v>0.9350815006695099</v>
+        <v>0.9432453847622407</v>
       </c>
       <c r="K12">
-        <v>1.032803674852104</v>
+        <v>1.037737559260883</v>
       </c>
       <c r="L12">
-        <v>0.9373291691578934</v>
+        <v>0.94465556198806</v>
       </c>
       <c r="M12">
-        <v>0.9873118909611378</v>
+        <v>0.9909299593039517</v>
       </c>
       <c r="N12">
-        <v>0.9782821568565178</v>
+        <v>0.9896310994216549</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>0.999380698201798</v>
+        <v>1.002241505122681</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.034334889399926</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037838851520263</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.01897237462762</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9040864733316415</v>
+        <v>0.912302416841174</v>
       </c>
       <c r="D13">
-        <v>1.018198012391346</v>
+        <v>1.023164193668911</v>
       </c>
       <c r="E13">
-        <v>0.923881931003547</v>
+        <v>0.9309997758988706</v>
       </c>
       <c r="F13">
-        <v>0.9746305253252439</v>
+        <v>0.9781199861446274</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047716200549022</v>
+        <v>1.05022735779213</v>
       </c>
       <c r="J13">
-        <v>0.9384782637926917</v>
+        <v>0.9462368052395427</v>
       </c>
       <c r="K13">
-        <v>1.032941786737803</v>
+        <v>1.037818073877925</v>
       </c>
       <c r="L13">
-        <v>0.9405791821228506</v>
+        <v>0.9475311299190278</v>
       </c>
       <c r="M13">
-        <v>0.9902147266419926</v>
+        <v>0.9936332415753873</v>
       </c>
       <c r="N13">
-        <v>0.9798417475901623</v>
+        <v>0.9907224003877119</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.001962357725002</v>
+        <v>1.004664655915104</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.034430044465668</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.037893052267211</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.01901142819507</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9077932087234908</v>
+        <v>0.915561002237646</v>
       </c>
       <c r="D14">
-        <v>1.018771207122093</v>
+        <v>1.023564911344706</v>
       </c>
       <c r="E14">
-        <v>0.9271470360189009</v>
+        <v>0.9338649623275721</v>
       </c>
       <c r="F14">
-        <v>0.977167788386908</v>
+        <v>0.9804579886404965</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04793423915099</v>
+        <v>1.05035858502326</v>
       </c>
       <c r="J14">
-        <v>0.9416194222685822</v>
+        <v>0.9489648292148403</v>
       </c>
       <c r="K14">
-        <v>1.033364117080851</v>
+        <v>1.038072107401976</v>
       </c>
       <c r="L14">
-        <v>0.9436063162102867</v>
+        <v>0.9501707930113503</v>
       </c>
       <c r="M14">
-        <v>0.9925510793980533</v>
+        <v>0.99577556124885</v>
       </c>
       <c r="N14">
-        <v>0.9812284517685674</v>
+        <v>0.9916154530791935</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.003987495091628</v>
+        <v>1.00653605553455</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.03473007202289</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038074214175951</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.0191263060664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.90929600922458</v>
+        <v>0.9168827469125272</v>
       </c>
       <c r="D15">
-        <v>1.019108068208946</v>
+        <v>1.023806402067621</v>
       </c>
       <c r="E15">
-        <v>0.9284360964159508</v>
+        <v>0.9349916690827548</v>
       </c>
       <c r="F15">
-        <v>0.9780869327353807</v>
+        <v>0.9812989309568465</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.048060129525918</v>
+        <v>1.050436485374777</v>
       </c>
       <c r="J15">
-        <v>0.9428201277717915</v>
+        <v>0.9499993233751962</v>
       </c>
       <c r="K15">
-        <v>1.033608434236134</v>
+        <v>1.038223393934406</v>
       </c>
       <c r="L15">
-        <v>0.9447664548720723</v>
+        <v>0.9511738507600351</v>
       </c>
       <c r="M15">
-        <v>0.9933599755260532</v>
+        <v>0.996508410928336</v>
       </c>
       <c r="N15">
-        <v>0.9817324626450549</v>
+        <v>0.9919167095916452</v>
       </c>
       <c r="O15">
-        <v>1.03</v>
+        <v>1.029999999999999</v>
       </c>
       <c r="P15">
-        <v>1.004665316257208</v>
+        <v>1.007153704844336</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.034908687155652</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038187592030952</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019190241675908</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9152775022603263</v>
+        <v>0.9221881598130608</v>
       </c>
       <c r="D16">
-        <v>1.021131959861316</v>
+        <v>1.025224592670646</v>
       </c>
       <c r="E16">
-        <v>0.9333731934341887</v>
+        <v>0.939321635743625</v>
       </c>
       <c r="F16">
-        <v>0.9812715061444748</v>
+        <v>0.9842004320270811</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048821683074063</v>
+        <v>1.050892921713211</v>
       </c>
       <c r="J16">
-        <v>0.9472191970095338</v>
+        <v>0.9537814600757387</v>
       </c>
       <c r="K16">
-        <v>1.035094283000654</v>
+        <v>1.03911748479336</v>
       </c>
       <c r="L16">
-        <v>0.9490188841864358</v>
+        <v>0.9548400597551769</v>
       </c>
       <c r="M16">
-        <v>0.9959496482484118</v>
+        <v>0.9988233986799844</v>
       </c>
       <c r="N16">
-        <v>0.9834016835843687</v>
+        <v>0.9928168730678255</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.006672417988897</v>
+        <v>1.008943777979118</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.035962398534004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.038823190877619</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019594419368368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9179676550025028</v>
+        <v>0.9246207202143524</v>
       </c>
       <c r="D17">
-        <v>1.02237598975767</v>
+        <v>1.026100492926161</v>
       </c>
       <c r="E17">
-        <v>0.9354913834774465</v>
+        <v>0.9412094475040919</v>
       </c>
       <c r="F17">
-        <v>0.9824129469362339</v>
+        <v>0.9852388723996481</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.049283697795483</v>
+        <v>1.051169341390336</v>
       </c>
       <c r="J17">
-        <v>0.9489890569668421</v>
+        <v>0.9553190354717864</v>
       </c>
       <c r="K17">
-        <v>1.036002740848744</v>
+        <v>1.039665855848843</v>
       </c>
       <c r="L17">
-        <v>0.9507336354343218</v>
+        <v>0.9563332791856167</v>
       </c>
       <c r="M17">
-        <v>0.9967365316957733</v>
+        <v>0.9995107643353751</v>
       </c>
       <c r="N17">
-        <v>0.9839708418290208</v>
+        <v>0.9930909951725386</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.007161896497595</v>
+        <v>1.009354828046234</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036607293745203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.039213727079842</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019840528138042</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9179825998542638</v>
+        <v>0.924663525607605</v>
       </c>
       <c r="D18">
-        <v>1.023127625980183</v>
+        <v>1.026616761863988</v>
       </c>
       <c r="E18">
-        <v>0.9352877770239515</v>
+        <v>0.9410278987256901</v>
       </c>
       <c r="F18">
-        <v>0.9816892205442764</v>
+        <v>0.984538379891277</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.049565349526274</v>
+        <v>1.051332223212469</v>
       </c>
       <c r="J18">
-        <v>0.9485471418050145</v>
+        <v>0.9549092640237327</v>
       </c>
       <c r="K18">
-        <v>1.036558740779539</v>
+        <v>1.0399913447392</v>
       </c>
       <c r="L18">
-        <v>0.9503255547567669</v>
+        <v>0.9559486175194892</v>
       </c>
       <c r="M18">
-        <v>0.9958316889577121</v>
+        <v>0.9986294471789487</v>
       </c>
       <c r="N18">
-        <v>0.9836048544910075</v>
+        <v>0.9927594502711566</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.006201539765094</v>
+        <v>1.008413553693613</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.036988772198025</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.039431138100372</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019997097556994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9155376688929582</v>
+        <v>0.9224801008183506</v>
       </c>
       <c r="D19">
-        <v>1.023355270026981</v>
+        <v>1.026784025111737</v>
       </c>
       <c r="E19">
-        <v>0.9329591062465173</v>
+        <v>0.9389256050454415</v>
       </c>
       <c r="F19">
-        <v>0.9791444698901673</v>
+        <v>0.9821231789791018</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.049646710573687</v>
+        <v>1.051383138267902</v>
       </c>
       <c r="J19">
-        <v>0.9460644969846262</v>
+        <v>0.952675232349589</v>
       </c>
       <c r="K19">
-        <v>1.036720231999299</v>
+        <v>1.040093756920901</v>
       </c>
       <c r="L19">
-        <v>0.9479734962934739</v>
+        <v>0.9538182288301793</v>
       </c>
       <c r="M19">
-        <v>0.9932666405941917</v>
+        <v>0.9961915493111274</v>
       </c>
       <c r="N19">
-        <v>0.9824049525006781</v>
+        <v>0.9918597328090473</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.003835655435048</v>
+        <v>1.006149008956837</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.037109338987922</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039510529466251</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020037904683708</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.906068556436198</v>
+        <v>0.9139615161579372</v>
       </c>
       <c r="D20">
-        <v>1.022246233228502</v>
+        <v>1.026007846042965</v>
       </c>
       <c r="E20">
-        <v>0.924568828644056</v>
+        <v>0.9313642226446219</v>
       </c>
       <c r="F20">
-        <v>0.9715396778242676</v>
+        <v>0.9749658291255263</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049236113229909</v>
+        <v>1.05114046757727</v>
       </c>
       <c r="J20">
-        <v>0.9377708732657164</v>
+        <v>0.945265365905229</v>
       </c>
       <c r="K20">
-        <v>1.035908872219014</v>
+        <v>1.039608291675256</v>
       </c>
       <c r="L20">
-        <v>0.9400817521908212</v>
+        <v>0.9467317846680706</v>
       </c>
       <c r="M20">
-        <v>0.9861021350072445</v>
+        <v>0.9894636364776144</v>
       </c>
       <c r="N20">
-        <v>0.9788352786104988</v>
+        <v>0.9893421271458236</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>0.9976148357319353</v>
+        <v>1.000275258990335</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.036539590958871</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039171569203108</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019815635694112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8924238828698766</v>
+        <v>0.9020357666017688</v>
       </c>
       <c r="D21">
-        <v>1.018561762570791</v>
+        <v>1.023434547462025</v>
       </c>
       <c r="E21">
-        <v>0.9130855599952845</v>
+        <v>0.921430359489556</v>
       </c>
       <c r="F21">
-        <v>0.9636281607910756</v>
+        <v>0.9678081997104592</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.047849518512412</v>
+        <v>1.050313735026769</v>
       </c>
       <c r="J21">
-        <v>0.9272261504005214</v>
+        <v>0.9362883881262922</v>
       </c>
       <c r="K21">
-        <v>1.033199807862704</v>
+        <v>1.037985142675742</v>
       </c>
       <c r="L21">
-        <v>0.9299245034931435</v>
+        <v>0.9380705649627532</v>
       </c>
       <c r="M21">
-        <v>0.979333003080748</v>
+        <v>0.9834262455340156</v>
       </c>
       <c r="N21">
-        <v>0.9746601038767702</v>
+        <v>0.9870033522867818</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>0.9922141288708558</v>
+        <v>0.9954538848672514</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.034627420902551</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.03802749301011</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019074662490793</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8836100693733604</v>
+        <v>0.8944008086615338</v>
       </c>
       <c r="D22">
-        <v>1.016211729832293</v>
+        <v>1.021787310649301</v>
       </c>
       <c r="E22">
-        <v>0.9057099267747009</v>
+        <v>0.9151178006464058</v>
       </c>
       <c r="F22">
-        <v>0.9586939171911405</v>
+        <v>0.9633886499818695</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046951810210823</v>
+        <v>1.049769534236511</v>
       </c>
       <c r="J22">
-        <v>0.9204692271399616</v>
+        <v>0.9305934830030177</v>
       </c>
       <c r="K22">
-        <v>1.031468728027044</v>
+        <v>1.036939169674674</v>
       </c>
       <c r="L22">
-        <v>0.9234131930778567</v>
+        <v>0.9325817139205782</v>
       </c>
       <c r="M22">
-        <v>0.9751306028932449</v>
+        <v>0.979722029217596</v>
       </c>
       <c r="N22">
-        <v>0.9719994695860691</v>
+        <v>0.9855359590137831</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>0.9888879575743456</v>
+        <v>0.9925220394901126</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.033389965836678</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037273211451271</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018606953098896</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8883371822210067</v>
+        <v>0.8984290052054684</v>
       </c>
       <c r="D23">
-        <v>1.017515413763638</v>
+        <v>1.022680137914083</v>
       </c>
       <c r="E23">
-        <v>0.9096636636397165</v>
+        <v>0.9184346143598076</v>
       </c>
       <c r="F23">
-        <v>0.9613349932713544</v>
+        <v>0.9657246964435671</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047457812287321</v>
+        <v>1.050068838996474</v>
       </c>
       <c r="J23">
-        <v>0.9240931150173325</v>
+        <v>0.9335865032685156</v>
       </c>
       <c r="K23">
-        <v>1.032442726050402</v>
+        <v>1.037512571067802</v>
       </c>
       <c r="L23">
-        <v>0.9269049512215135</v>
+        <v>0.9354604008142902</v>
       </c>
       <c r="M23">
-        <v>0.9773817651604438</v>
+        <v>0.9816777848398458</v>
       </c>
       <c r="N23">
-        <v>0.9734262591929742</v>
+        <v>0.9862530951944725</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>0.9906697395704543</v>
+        <v>0.9940699997449521</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.034068981742208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.037668093946666</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018878824005317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9058122441412014</v>
+        <v>0.9137325172204578</v>
       </c>
       <c r="D24">
-        <v>1.022379448430005</v>
+        <v>1.026071666195051</v>
       </c>
       <c r="E24">
-        <v>0.9243194792463701</v>
+        <v>0.9311382253507561</v>
       </c>
       <c r="F24">
-        <v>0.9712051939043238</v>
+        <v>0.9746464719958092</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049295374499284</v>
+        <v>1.051164634717675</v>
       </c>
       <c r="J24">
-        <v>0.9374888384780458</v>
+        <v>0.9450095329800543</v>
       </c>
       <c r="K24">
-        <v>1.03602463256238</v>
+        <v>1.039655897592099</v>
       </c>
       <c r="L24">
-        <v>0.9398201312732704</v>
+        <v>0.946493109697174</v>
       </c>
       <c r="M24">
-        <v>0.9857575796413918</v>
+        <v>0.9891339499181757</v>
       </c>
       <c r="N24">
-        <v>0.9787024907910847</v>
+        <v>0.989238836424425</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>0.9972991022324779</v>
+        <v>0.9999714408387714</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.036594058347644</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.039175293390726</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019860130397933</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9241634316829429</v>
+        <v>0.9306720516588697</v>
       </c>
       <c r="D25">
-        <v>1.027667473555817</v>
+        <v>1.029813445269603</v>
       </c>
       <c r="E25">
-        <v>0.9397714987733927</v>
+        <v>0.9453835280710958</v>
       </c>
       <c r="F25">
-        <v>0.9817528797441953</v>
+        <v>0.9845760835495444</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.051207802065177</v>
+        <v>1.052296076515968</v>
       </c>
       <c r="J25">
-        <v>0.951543331053345</v>
+        <v>0.957781143403641</v>
       </c>
       <c r="K25">
-        <v>1.039850950245989</v>
+        <v>1.041965926089672</v>
       </c>
       <c r="L25">
-        <v>0.9533827533346495</v>
+        <v>0.9588933146252031</v>
       </c>
       <c r="M25">
-        <v>0.9946412211602083</v>
+        <v>0.9974186498328979</v>
       </c>
       <c r="N25">
-        <v>0.9842345103768326</v>
+        <v>0.9932303949008502</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.004330325974235</v>
+        <v>1.006528588750009</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.039296591442811</v>
+        <v>1.040805434007912</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020893887186344</v>
       </c>
     </row>
   </sheetData>
